--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14912597114347</v>
+        <v>21.14912597114358</v>
       </c>
       <c r="C2">
-        <v>17.51721346634963</v>
+        <v>17.51721346634943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.99805079444601</v>
+        <v>10.99805079444599</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.84409635679862</v>
+        <v>20.84409635679846</v>
       </c>
       <c r="H2">
-        <v>16.36340439477774</v>
+        <v>16.36340439477754</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.64595554931605</v>
+        <v>18.64595554931607</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7027079488161</v>
+        <v>19.70270794881603</v>
       </c>
       <c r="C3">
-        <v>16.29148138419316</v>
+        <v>16.29148138419317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.40323366272683</v>
+        <v>10.40323366272681</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.04487093734037</v>
+        <v>20.04487093734048</v>
       </c>
       <c r="H3">
-        <v>16.12203172943907</v>
+        <v>16.1220317294392</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76765758528382</v>
+        <v>18.76765758528393</v>
       </c>
       <c r="C4">
-        <v>15.5013829588319</v>
+        <v>15.50138295883155</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.03584158678977</v>
+        <v>10.03584158678971</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.57653170548021</v>
+        <v>19.57653170548018</v>
       </c>
       <c r="H4">
-        <v>16.0025414123892</v>
+        <v>16.00254141238907</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.54164958357613</v>
+        <v>16.54164958357615</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>18.37465584371159</v>
       </c>
       <c r="C5">
-        <v>15.16981611024725</v>
+        <v>15.16981611024736</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.885691473054775</v>
+        <v>9.885691473054735</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>19.39131308078703</v>
+        <v>19.39131308078695</v>
       </c>
       <c r="H5">
-        <v>15.960665895432</v>
+        <v>15.96066589543189</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.19592619754033</v>
+        <v>16.1959261975404</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30867144353173</v>
+        <v>18.30867144353171</v>
       </c>
       <c r="C6">
-        <v>15.11417551584764</v>
+        <v>15.1141755158476</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.860736883783499</v>
+        <v>9.860736883783449</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.36089797353873</v>
+        <v>19.3608979735388</v>
       </c>
       <c r="H6">
-        <v>15.95411222481118</v>
+        <v>15.9541122248113</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.1379223670536</v>
+        <v>16.13792236705355</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76240605479264</v>
+        <v>18.76240605479262</v>
       </c>
       <c r="C7">
-        <v>15.49695039522964</v>
+        <v>15.49695039522963</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>10.03381819570031</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>19.57401096890882</v>
+        <v>19.57401096890881</v>
       </c>
       <c r="H7">
         <v>16.00194960217697</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.53702695101812</v>
+        <v>16.5370269510181</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.660045726101</v>
+        <v>20.66004572610096</v>
       </c>
       <c r="C8">
-        <v>17.10225797778134</v>
+        <v>17.10225797778136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.79346328099198</v>
+        <v>10.79346328099199</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56387765532143</v>
+        <v>20.56387765532133</v>
       </c>
       <c r="H8">
-        <v>16.27398220248897</v>
+        <v>16.27398220248888</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.0166350229507</v>
+        <v>24.01663502295068</v>
       </c>
       <c r="C9">
-        <v>19.96107497161819</v>
+        <v>19.96107497161827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26314484400604</v>
+        <v>12.26314484400605</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>22.68320873866167</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.27247063786534</v>
+        <v>26.27247063786531</v>
       </c>
       <c r="C10">
-        <v>21.89804666327578</v>
+        <v>21.89804666327585</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>13.39371184604581</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>24.35219065932381</v>
+        <v>24.35219065932379</v>
       </c>
       <c r="H10">
-        <v>17.79640994134706</v>
+        <v>17.79640994134708</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.22950979404697</v>
+        <v>23.22950979404695</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25611052367726</v>
+        <v>27.25611052367727</v>
       </c>
       <c r="C11">
-        <v>22.74703803718012</v>
+        <v>22.74703803718016</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.96328811213967</v>
+        <v>13.9632881121397</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>25.13750114225401</v>
+        <v>25.13750114225408</v>
       </c>
       <c r="H11">
-        <v>18.1769327921665</v>
+        <v>18.17693279216657</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.11896163983106</v>
+        <v>24.11896163983108</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.62275957898569</v>
+        <v>27.62275957898572</v>
       </c>
       <c r="C12">
-        <v>23.06422122423782</v>
+        <v>23.0642212242378</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.17710494875369</v>
+        <v>14.17710494875371</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>25.43886785134121</v>
+        <v>25.43886785134116</v>
       </c>
       <c r="H12">
-        <v>18.32747895664402</v>
+        <v>18.32747895664398</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.45133464619552</v>
+        <v>24.45133464619553</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.54404969138773</v>
+        <v>27.54404969138787</v>
       </c>
       <c r="C13">
-        <v>22.99609649515284</v>
+        <v>22.99609649515292</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.37378106953416</v>
+        <v>25.37378106953424</v>
       </c>
       <c r="H13">
-        <v>18.29476269184429</v>
+        <v>18.2947626918443</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.3799442486531</v>
+        <v>24.37994424865315</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28639012493092</v>
+        <v>27.286390124931</v>
       </c>
       <c r="C14">
-        <v>22.77321736447904</v>
+        <v>22.77321736447908</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.98091478666096</v>
+        <v>13.98091478666094</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>25.16221318015382</v>
+        <v>25.16221318015387</v>
       </c>
       <c r="H14">
         <v>18.18918668511451</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.14639323729851</v>
+        <v>24.14639323729855</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.12781550187946</v>
+        <v>27.12781550187956</v>
       </c>
       <c r="C15">
-        <v>22.63614593258815</v>
+        <v>22.63614593258817</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.88866597176028</v>
+        <v>13.88866597176029</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>25.03314950491594</v>
+        <v>25.03314950491592</v>
       </c>
       <c r="H15">
-        <v>18.1253705242882</v>
+        <v>18.12537052428811</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.00276804864819</v>
+        <v>24.00276804864826</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20735476949052</v>
+        <v>26.20735476949046</v>
       </c>
       <c r="C16">
-        <v>21.84194189126421</v>
+        <v>21.8419418912642</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>24.30141174491619</v>
       </c>
       <c r="H16">
-        <v>17.77242245356385</v>
+        <v>17.77242245356388</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63197539842237</v>
+        <v>25.63197539842238</v>
       </c>
       <c r="C17">
-        <v>21.34669885305538</v>
+        <v>21.34669885305539</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>13.02595033124019</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>23.85933479683183</v>
+        <v>23.85933479683182</v>
       </c>
       <c r="H17">
-        <v>17.5669589765864</v>
+        <v>17.56695897658636</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.65205440839642</v>
+        <v>22.65205440839644</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.29700832901935</v>
+        <v>25.29700832901942</v>
       </c>
       <c r="C18">
-        <v>21.05880150699414</v>
+        <v>21.05880150699396</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.86153282716963</v>
+        <v>12.86153282716964</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>23.60749974027887</v>
+        <v>23.60749974027881</v>
       </c>
       <c r="H18">
-        <v>17.45271981210935</v>
+        <v>17.45271981210924</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.35058156503693</v>
+        <v>22.35058156503696</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.18289498101614</v>
+        <v>25.1828949810161</v>
       </c>
       <c r="C19">
-        <v>20.96079231294673</v>
+        <v>20.96079231294679</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.80741011286485</v>
+        <v>12.80741011286486</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>23.52264534150212</v>
+        <v>23.52264534150218</v>
       </c>
       <c r="H19">
-        <v>17.41470496312482</v>
+        <v>17.41470496312489</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69364003943164</v>
+        <v>25.69364003943165</v>
       </c>
       <c r="C20">
-        <v>21.39973151065321</v>
+        <v>21.39973151065325</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.06125150162249</v>
+        <v>13.06125150162253</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>23.90614111232137</v>
       </c>
       <c r="H20">
-        <v>17.58842053720979</v>
+        <v>17.58842053720977</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.70759214050626</v>
+        <v>22.70759214050628</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.36222687024088</v>
+        <v>27.36222687024089</v>
       </c>
       <c r="C21">
-        <v>22.8387966903794</v>
+        <v>22.83879669037955</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.02508634712495</v>
+        <v>14.02508634712497</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.22424525682994</v>
+        <v>25.22424525682996</v>
       </c>
       <c r="H21">
         <v>18.22001857867244</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.21511066509615</v>
+        <v>24.21511066509616</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41889910684632</v>
+        <v>28.41889910684625</v>
       </c>
       <c r="C22">
-        <v>23.75435481087953</v>
+        <v>23.75435481087947</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.64426359967768</v>
+        <v>14.64426359967766</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>26.24670887878217</v>
+        <v>26.24670887878202</v>
       </c>
       <c r="H22">
-        <v>18.6706064766946</v>
+        <v>18.67060647669459</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.17464411724609</v>
+        <v>25.17464411724603</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.85792629851228</v>
+        <v>27.85792629851224</v>
       </c>
       <c r="C23">
-        <v>23.267873379514</v>
+        <v>23.26787337951404</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.31468351914017</v>
+        <v>14.31468351914018</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>25.65976600530295</v>
+        <v>25.65976600530297</v>
       </c>
       <c r="H23">
-        <v>18.42652244306339</v>
+        <v>18.42652244306344</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66577447672761</v>
+        <v>25.66577447672758</v>
       </c>
       <c r="C24">
-        <v>21.37576536014183</v>
+        <v>21.37576536014196</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.0452965225611</v>
+        <v>13.04529652256109</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>23.88497276465039</v>
+        <v>23.88497276465035</v>
       </c>
       <c r="H24">
-        <v>17.57870569588163</v>
+        <v>17.57870569588158</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.68249374807842</v>
+        <v>22.68249374807843</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14645861466373</v>
+        <v>23.14645861466371</v>
       </c>
       <c r="C25">
-        <v>19.21740058940675</v>
+        <v>19.2174005894066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.86790505349917</v>
+        <v>11.86790505349916</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.09060377406265</v>
+        <v>22.09060377406261</v>
       </c>
       <c r="H25">
-        <v>16.81325639499712</v>
+        <v>16.81325639499708</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14912597114358</v>
+        <v>21.14912597114347</v>
       </c>
       <c r="C2">
-        <v>17.51721346634943</v>
+        <v>17.51721346634963</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.99805079444599</v>
+        <v>10.99805079444601</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.84409635679846</v>
+        <v>20.84409635679862</v>
       </c>
       <c r="H2">
-        <v>16.36340439477754</v>
+        <v>16.36340439477774</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.64595554931607</v>
+        <v>18.64595554931605</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70270794881603</v>
+        <v>19.7027079488161</v>
       </c>
       <c r="C3">
-        <v>16.29148138419317</v>
+        <v>16.29148138419316</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.40323366272681</v>
+        <v>10.40323366272683</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.04487093734048</v>
+        <v>20.04487093734037</v>
       </c>
       <c r="H3">
-        <v>16.1220317294392</v>
+        <v>16.12203172943907</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76765758528393</v>
+        <v>18.76765758528382</v>
       </c>
       <c r="C4">
-        <v>15.50138295883155</v>
+        <v>15.5013829588319</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.03584158678971</v>
+        <v>10.03584158678977</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.57653170548018</v>
+        <v>19.57653170548021</v>
       </c>
       <c r="H4">
-        <v>16.00254141238907</v>
+        <v>16.0025414123892</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.54164958357615</v>
+        <v>16.54164958357613</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>18.37465584371159</v>
       </c>
       <c r="C5">
-        <v>15.16981611024736</v>
+        <v>15.16981611024725</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.885691473054735</v>
+        <v>9.885691473054775</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.39131308078695</v>
+        <v>19.39131308078703</v>
       </c>
       <c r="H5">
-        <v>15.96066589543189</v>
+        <v>15.960665895432</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.1959261975404</v>
+        <v>16.19592619754033</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30867144353171</v>
+        <v>18.30867144353173</v>
       </c>
       <c r="C6">
-        <v>15.1141755158476</v>
+        <v>15.11417551584764</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.860736883783449</v>
+        <v>9.860736883783499</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.3608979735388</v>
+        <v>19.36089797353873</v>
       </c>
       <c r="H6">
-        <v>15.9541122248113</v>
+        <v>15.95411222481118</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.13792236705355</v>
+        <v>16.1379223670536</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76240605479262</v>
+        <v>18.76240605479264</v>
       </c>
       <c r="C7">
-        <v>15.49695039522963</v>
+        <v>15.49695039522964</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>10.03381819570031</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.57401096890881</v>
+        <v>19.57401096890882</v>
       </c>
       <c r="H7">
         <v>16.00194960217697</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.5370269510181</v>
+        <v>16.53702695101812</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66004572610096</v>
+        <v>20.660045726101</v>
       </c>
       <c r="C8">
-        <v>17.10225797778136</v>
+        <v>17.10225797778134</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.79346328099199</v>
+        <v>10.79346328099198</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56387765532133</v>
+        <v>20.56387765532143</v>
       </c>
       <c r="H8">
-        <v>16.27398220248888</v>
+        <v>16.27398220248897</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.01663502295068</v>
+        <v>24.0166350229507</v>
       </c>
       <c r="C9">
-        <v>19.96107497161827</v>
+        <v>19.96107497161819</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26314484400605</v>
+        <v>12.26314484400604</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>22.68320873866167</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.27247063786531</v>
+        <v>26.27247063786534</v>
       </c>
       <c r="C10">
-        <v>21.89804666327585</v>
+        <v>21.89804666327578</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>13.39371184604581</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.35219065932379</v>
+        <v>24.35219065932381</v>
       </c>
       <c r="H10">
-        <v>17.79640994134708</v>
+        <v>17.79640994134706</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.22950979404695</v>
+        <v>23.22950979404697</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25611052367727</v>
+        <v>27.25611052367726</v>
       </c>
       <c r="C11">
-        <v>22.74703803718016</v>
+        <v>22.74703803718012</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.9632881121397</v>
+        <v>13.96328811213967</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.13750114225408</v>
+        <v>25.13750114225401</v>
       </c>
       <c r="H11">
-        <v>18.17693279216657</v>
+        <v>18.1769327921665</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.11896163983108</v>
+        <v>24.11896163983106</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.62275957898572</v>
+        <v>27.62275957898569</v>
       </c>
       <c r="C12">
-        <v>23.0642212242378</v>
+        <v>23.06422122423782</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.17710494875371</v>
+        <v>14.17710494875369</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>25.43886785134116</v>
+        <v>25.43886785134121</v>
       </c>
       <c r="H12">
-        <v>18.32747895664398</v>
+        <v>18.32747895664402</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.45133464619553</v>
+        <v>24.45133464619552</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.54404969138787</v>
+        <v>27.54404969138773</v>
       </c>
       <c r="C13">
-        <v>22.99609649515292</v>
+        <v>22.99609649515284</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.37378106953424</v>
+        <v>25.37378106953416</v>
       </c>
       <c r="H13">
-        <v>18.2947626918443</v>
+        <v>18.29476269184429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.37994424865315</v>
+        <v>24.3799442486531</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.286390124931</v>
+        <v>27.28639012493092</v>
       </c>
       <c r="C14">
-        <v>22.77321736447908</v>
+        <v>22.77321736447904</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.98091478666094</v>
+        <v>13.98091478666096</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.16221318015387</v>
+        <v>25.16221318015382</v>
       </c>
       <c r="H14">
         <v>18.18918668511451</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.14639323729855</v>
+        <v>24.14639323729851</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.12781550187956</v>
+        <v>27.12781550187946</v>
       </c>
       <c r="C15">
-        <v>22.63614593258817</v>
+        <v>22.63614593258815</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.88866597176029</v>
+        <v>13.88866597176028</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.03314950491592</v>
+        <v>25.03314950491594</v>
       </c>
       <c r="H15">
-        <v>18.12537052428811</v>
+        <v>18.1253705242882</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.00276804864826</v>
+        <v>24.00276804864819</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20735476949046</v>
+        <v>26.20735476949052</v>
       </c>
       <c r="C16">
-        <v>21.8419418912642</v>
+        <v>21.84194189126421</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>24.30141174491619</v>
       </c>
       <c r="H16">
-        <v>17.77242245356388</v>
+        <v>17.77242245356385</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63197539842238</v>
+        <v>25.63197539842237</v>
       </c>
       <c r="C17">
-        <v>21.34669885305539</v>
+        <v>21.34669885305538</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>13.02595033124019</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.85933479683182</v>
+        <v>23.85933479683183</v>
       </c>
       <c r="H17">
-        <v>17.56695897658636</v>
+        <v>17.5669589765864</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.65205440839644</v>
+        <v>22.65205440839642</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.29700832901942</v>
+        <v>25.29700832901935</v>
       </c>
       <c r="C18">
-        <v>21.05880150699396</v>
+        <v>21.05880150699414</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.86153282716964</v>
+        <v>12.86153282716963</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.60749974027881</v>
+        <v>23.60749974027887</v>
       </c>
       <c r="H18">
-        <v>17.45271981210924</v>
+        <v>17.45271981210935</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.35058156503696</v>
+        <v>22.35058156503693</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1828949810161</v>
+        <v>25.18289498101614</v>
       </c>
       <c r="C19">
-        <v>20.96079231294679</v>
+        <v>20.96079231294673</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.80741011286486</v>
+        <v>12.80741011286485</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.52264534150218</v>
+        <v>23.52264534150212</v>
       </c>
       <c r="H19">
-        <v>17.41470496312489</v>
+        <v>17.41470496312482</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69364003943165</v>
+        <v>25.69364003943164</v>
       </c>
       <c r="C20">
-        <v>21.39973151065325</v>
+        <v>21.39973151065321</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.06125150162253</v>
+        <v>13.06125150162249</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>23.90614111232137</v>
       </c>
       <c r="H20">
-        <v>17.58842053720977</v>
+        <v>17.58842053720979</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.70759214050628</v>
+        <v>22.70759214050626</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.36222687024089</v>
+        <v>27.36222687024088</v>
       </c>
       <c r="C21">
-        <v>22.83879669037955</v>
+        <v>22.8387966903794</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.02508634712497</v>
+        <v>14.02508634712495</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.22424525682996</v>
+        <v>25.22424525682994</v>
       </c>
       <c r="H21">
         <v>18.22001857867244</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.21511066509616</v>
+        <v>24.21511066509615</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41889910684625</v>
+        <v>28.41889910684632</v>
       </c>
       <c r="C22">
-        <v>23.75435481087947</v>
+        <v>23.75435481087953</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.64426359967766</v>
+        <v>14.64426359967768</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>26.24670887878202</v>
+        <v>26.24670887878217</v>
       </c>
       <c r="H22">
-        <v>18.67060647669459</v>
+        <v>18.6706064766946</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.17464411724603</v>
+        <v>25.17464411724609</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.85792629851224</v>
+        <v>27.85792629851228</v>
       </c>
       <c r="C23">
-        <v>23.26787337951404</v>
+        <v>23.267873379514</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.31468351914018</v>
+        <v>14.31468351914017</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.65976600530297</v>
+        <v>25.65976600530295</v>
       </c>
       <c r="H23">
-        <v>18.42652244306344</v>
+        <v>18.42652244306339</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66577447672758</v>
+        <v>25.66577447672761</v>
       </c>
       <c r="C24">
-        <v>21.37576536014196</v>
+        <v>21.37576536014183</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.04529652256109</v>
+        <v>13.0452965225611</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.88497276465035</v>
+        <v>23.88497276465039</v>
       </c>
       <c r="H24">
-        <v>17.57870569588158</v>
+        <v>17.57870569588163</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.68249374807843</v>
+        <v>22.68249374807842</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14645861466371</v>
+        <v>23.14645861466373</v>
       </c>
       <c r="C25">
-        <v>19.2174005894066</v>
+        <v>19.21740058940675</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.86790505349916</v>
+        <v>11.86790505349917</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.09060377406261</v>
+        <v>22.09060377406265</v>
       </c>
       <c r="H25">
-        <v>16.81325639499708</v>
+        <v>16.81325639499712</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14912597114347</v>
+        <v>21.14870793146541</v>
       </c>
       <c r="C2">
-        <v>17.51721346634963</v>
+        <v>17.51167451233302</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.99805079444601</v>
+        <v>10.99857258338629</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.84409635679862</v>
+        <v>19.67763823861446</v>
       </c>
       <c r="H2">
-        <v>16.36340439477774</v>
+        <v>20.86778592453037</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.34362719611893</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.64595554931605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.64493713973688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7027079488161</v>
+        <v>19.70251077417025</v>
       </c>
       <c r="C3">
-        <v>16.29148138419316</v>
+        <v>16.28651810749463</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.40323366272683</v>
+        <v>10.40378625270779</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>20.04487093734037</v>
+        <v>18.59896117633724</v>
       </c>
       <c r="H3">
-        <v>16.12203172943907</v>
+        <v>20.0681236746674</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.10395311458918</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.36596093987857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.36514217576988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76765758528382</v>
+        <v>18.76759326452096</v>
       </c>
       <c r="C4">
-        <v>15.5013829588319</v>
+        <v>15.49678122729274</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.03584158678977</v>
+        <v>10.03641872029993</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.57653170548021</v>
+        <v>17.94454649833582</v>
       </c>
       <c r="H4">
-        <v>16.0025414123892</v>
+        <v>19.59960715314034</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.98552466361394</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.54164958357613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.54095163374779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37465584371159</v>
+        <v>18.37464526292361</v>
       </c>
       <c r="C5">
-        <v>15.16981611024725</v>
+        <v>15.1653641184137</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.885691473054775</v>
+        <v>9.886280179299659</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.39131308078703</v>
+        <v>17.68007327712246</v>
       </c>
       <c r="H5">
-        <v>15.960665895432</v>
+        <v>19.41433888421579</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.94408552123757</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.19592619754033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.19527728661324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30867144353173</v>
+        <v>18.3086697705667</v>
       </c>
       <c r="C6">
-        <v>15.11417551584764</v>
+        <v>15.10974854436432</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.860736883783499</v>
+        <v>9.861327610806017</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.36089797353873</v>
+        <v>17.63629849636177</v>
       </c>
       <c r="H6">
-        <v>15.95411222481118</v>
+        <v>19.38391688711083</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.93760449964225</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.1379223670536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.13728159436685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76240605479264</v>
+        <v>18.76234246001915</v>
       </c>
       <c r="C7">
-        <v>15.49695039522964</v>
+        <v>15.49235067289725</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.03381819570031</v>
+        <v>10.0343954787291</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.57401096890882</v>
+        <v>17.94097045376732</v>
       </c>
       <c r="H7">
-        <v>16.00194960217697</v>
+        <v>19.59708565602574</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.98493872513044</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.53702695101812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.53632966300911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.660045726101</v>
+        <v>20.65970459416814</v>
       </c>
       <c r="C8">
-        <v>17.10225797778134</v>
+        <v>17.09691607179263</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.79346328099198</v>
+        <v>10.79399461891733</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.56387765532143</v>
+        <v>19.30418387207824</v>
       </c>
       <c r="H8">
-        <v>16.27398220248897</v>
+        <v>20.58739763603496</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.25478607613786</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.21248130636233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.21153225773538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.0166350229507</v>
+        <v>24.01571363785753</v>
       </c>
       <c r="C9">
-        <v>19.96107497161819</v>
+        <v>19.95432376910815</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26314484400604</v>
+        <v>12.26362307749658</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>22.68320873866167</v>
+        <v>22.03409005440259</v>
       </c>
       <c r="H9">
-        <v>17.05246232195849</v>
+        <v>22.70832554062256</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.02917960493625</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.20148709798555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.20001795336026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.27247063786534</v>
+        <v>26.27107913561299</v>
       </c>
       <c r="C10">
-        <v>21.89804666327578</v>
+        <v>21.89026050080539</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.39371184604581</v>
+        <v>13.39450502987604</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.35219065932381</v>
+        <v>24.07238848020734</v>
       </c>
       <c r="H10">
-        <v>17.79640994134706</v>
+        <v>24.37891422960177</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.77030462670355</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.22950979404697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.22762281260995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25611052367726</v>
+        <v>27.25448986097408</v>
       </c>
       <c r="C11">
-        <v>22.74703803718012</v>
+        <v>22.73877387811224</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.96328811213967</v>
+        <v>13.96409266862488</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.13750114225401</v>
+        <v>25.06709949418783</v>
       </c>
       <c r="H11">
-        <v>18.1769327921665</v>
+        <v>25.16504598656954</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.14959125982068</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.11896163983106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.11687147461644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.62275957898569</v>
+        <v>27.62104935424292</v>
       </c>
       <c r="C12">
-        <v>23.06422122423782</v>
+        <v>23.05577429652498</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.17710494875369</v>
+        <v>14.17791264872884</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>25.43886785134121</v>
+        <v>25.44487373926164</v>
       </c>
       <c r="H12">
-        <v>18.32747895664402</v>
+        <v>25.46673626683095</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.29967652440258</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.45133464619552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.44916510465985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.54404969138773</v>
+        <v>27.54235888969099</v>
       </c>
       <c r="C13">
-        <v>22.99609649515284</v>
+        <v>22.98768902128511</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.13113424075512</v>
+        <v>14.13194132076576</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>25.37378106953416</v>
+        <v>25.36349512628742</v>
       </c>
       <c r="H13">
-        <v>18.29476269184429</v>
+        <v>25.40157924620308</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.26705919925356</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.3799442486531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.37779192046206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28639012493092</v>
+        <v>27.28476215342116</v>
       </c>
       <c r="C14">
-        <v>22.77321736447904</v>
+        <v>22.76493820886491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.98091478666096</v>
+        <v>13.98171962696404</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.16221318015382</v>
+        <v>25.09817162263977</v>
       </c>
       <c r="H14">
-        <v>18.18918668511451</v>
+        <v>25.18978439546159</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.16180708859572</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.14639323729851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.14429659408671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.12781550187946</v>
+        <v>27.12622563400409</v>
       </c>
       <c r="C15">
-        <v>22.63614593258815</v>
+        <v>22.627945122381</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.88866597176028</v>
+        <v>13.88946927901047</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.03314950491594</v>
+        <v>24.93569952915554</v>
       </c>
       <c r="H15">
-        <v>18.1253705242882</v>
+        <v>25.06058332390366</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.09819026946486</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.00276804864819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.00070517881572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20735476949052</v>
+        <v>26.20597788793144</v>
       </c>
       <c r="C16">
-        <v>21.84194189126421</v>
+        <v>21.8341867629412</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.35621211126999</v>
+        <v>13.35700440633178</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.30141174491619</v>
+        <v>24.01142003201302</v>
       </c>
       <c r="H16">
-        <v>17.77242245356385</v>
+        <v>24.32808342628556</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.7463989286577</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.17074201194928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.16886800062537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63197539842237</v>
+        <v>25.63072487386881</v>
       </c>
       <c r="C17">
-        <v>21.34669885305538</v>
+        <v>21.3392148150996</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.02595033124019</v>
+        <v>13.02673412901435</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.85933479683183</v>
+        <v>23.47809552668179</v>
       </c>
       <c r="H17">
-        <v>17.5669589765864</v>
+        <v>23.88556178910692</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.54165766898501</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.65205440839642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.65029253884315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.29700832901935</v>
+        <v>25.29582908166458</v>
       </c>
       <c r="C18">
-        <v>21.05880150699414</v>
+        <v>21.05147276655933</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.86153282716963</v>
+        <v>12.86199508641282</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.60749974027887</v>
+        <v>23.17213312601607</v>
       </c>
       <c r="H18">
-        <v>17.45271981210935</v>
+        <v>23.63347949174094</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.42783840140405</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.35058156503693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.34888300108454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.18289498101614</v>
+        <v>25.18173964259978</v>
       </c>
       <c r="C19">
-        <v>20.96079231294673</v>
+        <v>20.9535160661844</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.80741011286485</v>
+        <v>12.80787378675085</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.52264534150212</v>
+        <v>23.06866947734066</v>
       </c>
       <c r="H19">
-        <v>17.41470496312482</v>
+        <v>23.54854285897228</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.38996647821572</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.24796019582286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.24628287585569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69364003943164</v>
+        <v>25.69237621275738</v>
       </c>
       <c r="C20">
-        <v>21.39973151065321</v>
+        <v>21.39221868438222</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.06125150162249</v>
+        <v>13.06203626278018</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>23.90614111232137</v>
+        <v>23.53478537988295</v>
       </c>
       <c r="H20">
-        <v>17.58842053720979</v>
+        <v>23.93241456230517</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.56304187928927</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.70759214050626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.70581846064113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.36222687024088</v>
+        <v>27.36058052471724</v>
       </c>
       <c r="C21">
-        <v>22.8387966903794</v>
+        <v>22.83047989884369</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.02508634712495</v>
+        <v>14.02589187948199</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.22424525682994</v>
+        <v>25.17609321075802</v>
       </c>
       <c r="H21">
-        <v>18.22001857867244</v>
+        <v>25.25188279854872</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.19254364875054</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.21511066509615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.21299773686717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41889910684632</v>
+        <v>28.41698618314538</v>
       </c>
       <c r="C22">
-        <v>23.75435481087953</v>
+        <v>23.74550187479505</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.64426359967768</v>
+        <v>14.64507574404556</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>26.24670887878217</v>
+        <v>26.27656519834883</v>
       </c>
       <c r="H22">
-        <v>18.6706064766946</v>
+        <v>26.14991354167016</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.64180354860451</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.17464411724609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.17229493793537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.85792629851228</v>
+        <v>27.85615739163114</v>
       </c>
       <c r="C23">
-        <v>23.267873379514</v>
+        <v>23.25930784966576</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.31468351914017</v>
+        <v>14.31549288517294</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>25.65976600530295</v>
+        <v>25.68892390251643</v>
       </c>
       <c r="H23">
-        <v>18.42652244306339</v>
+        <v>25.66268056451693</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.39842442316792</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>24.66475932155455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.66253777522434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66577447672761</v>
+        <v>25.66451666815787</v>
       </c>
       <c r="C24">
-        <v>21.37576536014183</v>
+        <v>21.36826555074641</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.0452965225611</v>
+        <v>13.04608084987159</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.88497276465039</v>
+        <v>23.50915388139294</v>
       </c>
       <c r="H24">
-        <v>17.57870569588163</v>
+        <v>23.91122518486275</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.55336199347943</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.68249374807842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.68072541124782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14645861466373</v>
+        <v>23.14570015673067</v>
       </c>
       <c r="C25">
-        <v>19.21740058940675</v>
+        <v>19.21102836595295</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.86790505349917</v>
+        <v>11.8683948389425</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>22.09060377406265</v>
+        <v>21.29003244383546</v>
       </c>
       <c r="H25">
-        <v>16.81325639499712</v>
+        <v>22.11521142357312</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.7910513819829</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.42340458779733</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.42208083010505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14870793146541</v>
+        <v>20.45763638022585</v>
       </c>
       <c r="C2">
-        <v>17.51167451233302</v>
+        <v>13.92885655138981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.99857258338629</v>
+        <v>16.75774503078054</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>42.31557510201647</v>
       </c>
       <c r="G2">
-        <v>19.67763823861446</v>
+        <v>2.079920292761953</v>
       </c>
       <c r="H2">
-        <v>20.86778592453037</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.34362719611893</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.523263403317674</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.90408621402813</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.64493713973688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>23.73796945176072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70251077417025</v>
+        <v>19.00611804192868</v>
       </c>
       <c r="C3">
-        <v>16.28651810749463</v>
+        <v>12.96721723136187</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.40378625270779</v>
+        <v>15.7599030942405</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>40.23419770957685</v>
       </c>
       <c r="G3">
-        <v>18.59896117633724</v>
+        <v>2.090464657207538</v>
       </c>
       <c r="H3">
-        <v>20.0681236746674</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.10395311458918</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.535876456443151</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.66200087013021</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.36514217576988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>23.03566993264203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.76759326452096</v>
+        <v>18.06874396675762</v>
       </c>
       <c r="C4">
-        <v>15.49678122729274</v>
+        <v>12.34650160811191</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.03641872029993</v>
+        <v>15.12436344002308</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>38.95211319919316</v>
       </c>
       <c r="G4">
-        <v>17.94454649833582</v>
+        <v>2.097066101175387</v>
       </c>
       <c r="H4">
-        <v>19.59960715314034</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.98552466361394</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.548113780840941</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.85995429452837</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.54095163374779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>22.62907757152069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37464526292361</v>
+        <v>17.6749787484045</v>
       </c>
       <c r="C5">
-        <v>15.1653641184137</v>
+        <v>12.08582458456221</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.886280179299659</v>
+        <v>14.85978022276681</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>38.42909658175329</v>
       </c>
       <c r="G5">
-        <v>17.68007327712246</v>
+        <v>2.099791011154052</v>
       </c>
       <c r="H5">
-        <v>19.41433888421579</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.94408552123757</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.554165865822818</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.52305333071954</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.19527728661324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>22.4694707520486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3086697705667</v>
+        <v>17.60887806271894</v>
       </c>
       <c r="C6">
-        <v>15.10974854436432</v>
+        <v>12.04206914959244</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.861327610806017</v>
+        <v>14.81551400770802</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>38.34223258500514</v>
       </c>
       <c r="G6">
-        <v>17.63629849636177</v>
+        <v>2.100245657600158</v>
       </c>
       <c r="H6">
-        <v>19.38391688711083</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.93760449964225</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.555233340743841</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.46649929263505</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.13728159436685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>22.44333218113104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.76234246001915</v>
+        <v>18.06348142351569</v>
       </c>
       <c r="C7">
-        <v>15.49235067289725</v>
+        <v>12.34301747821917</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.0343954787291</v>
+        <v>15.12081759102424</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>38.94506115468954</v>
       </c>
       <c r="G7">
-        <v>17.94097045376732</v>
+        <v>2.097102705963573</v>
       </c>
       <c r="H7">
-        <v>19.59708565602574</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.98493872513044</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.548191170400848</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.85545165924695</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.53632966300911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>22.62690057911558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65970459416814</v>
+        <v>19.96661819119164</v>
       </c>
       <c r="C8">
-        <v>17.09691607179263</v>
+        <v>13.60348943333598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.79399461891733</v>
+        <v>16.41850824458318</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>41.5990185183136</v>
       </c>
       <c r="G8">
-        <v>19.30418387207824</v>
+        <v>2.083531353517564</v>
       </c>
       <c r="H8">
-        <v>20.58739763603496</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.25478607613786</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.526639801302493</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.48389741968728</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.21153225773538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>23.49064258692899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.01571363785753</v>
+        <v>23.3412621128516</v>
       </c>
       <c r="C9">
-        <v>19.95432376910815</v>
+        <v>15.84111096082474</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.26362307749658</v>
+        <v>18.77799040692135</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>46.75643521808762</v>
       </c>
       <c r="G9">
-        <v>22.03409005440259</v>
+        <v>2.057787121338708</v>
       </c>
       <c r="H9">
-        <v>22.70832554062256</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.02917960493625</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.523150065373559</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.37216286509553</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.20001795336026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>25.38474447857763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.27107913561299</v>
+        <v>25.61600791502806</v>
       </c>
       <c r="C10">
-        <v>21.89026050080539</v>
+        <v>17.35162260717293</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.39450502987604</v>
+        <v>20.39698360956746</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>50.50795008293635</v>
       </c>
       <c r="G10">
-        <v>24.07238848020734</v>
+        <v>2.03918341805509</v>
       </c>
       <c r="H10">
-        <v>24.37891422960177</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.77030462670355</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.548921564284296</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.31970947711966</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.22762281260995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>26.90650004196262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25448986097408</v>
+        <v>26.60975669200418</v>
       </c>
       <c r="C11">
-        <v>22.73877387811224</v>
+        <v>18.01217781781999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.96409266862488</v>
+        <v>21.10926529379606</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>52.20759818126116</v>
       </c>
       <c r="G11">
-        <v>25.06709949418783</v>
+        <v>2.03073068658439</v>
       </c>
       <c r="H11">
-        <v>25.16504598656954</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.14959125982068</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.567952251527228</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.17072410834661</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.11687147461644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>27.62944335668169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.62104935424292</v>
+        <v>26.98047579814082</v>
       </c>
       <c r="C12">
-        <v>23.05577429652498</v>
+        <v>18.25871547625283</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.17791264872884</v>
+        <v>21.37561601953031</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>52.85051886141029</v>
       </c>
       <c r="G12">
-        <v>25.44487373926164</v>
+        <v>2.027525812390724</v>
       </c>
       <c r="H12">
-        <v>25.46673626683095</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.29967652440258</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.576316505460773</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.48823243981699</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.44916510465985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>27.90788311756568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.54235888969099</v>
+        <v>26.90087815823055</v>
       </c>
       <c r="C13">
-        <v>22.98768902128511</v>
+        <v>18.20577544568235</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.13194132076576</v>
+        <v>21.31840055392531</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>52.71207887243133</v>
       </c>
       <c r="G13">
-        <v>25.36349512628742</v>
+        <v>2.028216313160794</v>
       </c>
       <c r="H13">
-        <v>25.40157924620308</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.26705919925356</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.574461803955071</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.42005802355651</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.37779192046206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>27.84770313665278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.28476215342116</v>
+        <v>26.64036613429883</v>
       </c>
       <c r="C14">
-        <v>22.76493820886491</v>
+        <v>18.03253139551218</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.98171962696404</v>
+        <v>21.13124499832189</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>52.26050333683043</v>
       </c>
       <c r="G14">
-        <v>25.09817162263977</v>
+        <v>2.030467134099989</v>
       </c>
       <c r="H14">
-        <v>25.18978439546159</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.16180708859572</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.568616529815183</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.19693928216987</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.14429659408671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>27.65225525997181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.12622563400409</v>
+        <v>26.48007661176611</v>
       </c>
       <c r="C15">
-        <v>22.627945122381</v>
+        <v>17.92595265013976</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.88946927901047</v>
+        <v>21.01617122112949</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>51.9838210432028</v>
       </c>
       <c r="G15">
-        <v>24.93569952915554</v>
+        <v>2.031845129345179</v>
       </c>
       <c r="H15">
-        <v>25.06058332390366</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.09819026946486</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.565190260196317</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.05966232312976</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.00070517881572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>27.53315592410872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.20597788793144</v>
+        <v>25.5502638419418</v>
       </c>
       <c r="C16">
-        <v>21.8341867629412</v>
+        <v>17.30793720676248</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.35700440633178</v>
+        <v>20.34995526758484</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>50.39675609819645</v>
       </c>
       <c r="G16">
-        <v>24.01142003201302</v>
+        <v>2.039735578157266</v>
       </c>
       <c r="H16">
-        <v>24.32808342628556</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.7463989286577</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.547833811075533</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.26341312624203</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.16886800062537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>26.85989248154142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.63072487386881</v>
+        <v>24.96955053857415</v>
       </c>
       <c r="C17">
-        <v>21.3392148150996</v>
+        <v>16.92214549881863</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.02673412901435</v>
+        <v>19.93511478901344</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>49.42152521079421</v>
       </c>
       <c r="G17">
-        <v>23.47809552668179</v>
+        <v>2.044575059786167</v>
       </c>
       <c r="H17">
-        <v>23.88556178910692</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.54165766898501</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.53913062127461</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.76617525550973</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.65029253884315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>26.45489343097469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.29582908166458</v>
+        <v>24.63165569743609</v>
       </c>
       <c r="C18">
-        <v>21.05147276655933</v>
+        <v>16.69773121852422</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.86199508641282</v>
+        <v>19.69422199703145</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>48.85991736508817</v>
       </c>
       <c r="G18">
-        <v>23.17213312601607</v>
+        <v>2.047359929248301</v>
       </c>
       <c r="H18">
-        <v>23.63347949174094</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.42783840140405</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.534805572823444</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.47687099199619</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.34888300108454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>26.22481779299601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.18173964259978</v>
+        <v>24.51657439208541</v>
       </c>
       <c r="C19">
-        <v>20.9535160661844</v>
+        <v>16.62130976050723</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.80787378675085</v>
+        <v>19.61226445251707</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>48.66964336953487</v>
       </c>
       <c r="G19">
-        <v>23.06866947734066</v>
+        <v>2.048303220919801</v>
       </c>
       <c r="H19">
-        <v>23.54854285897228</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.38996647821572</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.533455020388564</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.37834196803121</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.24628287585569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>26.14740399823281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69237621275738</v>
+        <v>25.03176830249272</v>
       </c>
       <c r="C20">
-        <v>21.39221868438222</v>
+        <v>16.96347267261404</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.06203626278018</v>
+        <v>19.97951139024509</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>49.52540905423763</v>
       </c>
       <c r="G20">
-        <v>23.53478537988295</v>
+        <v>2.044059788553344</v>
       </c>
       <c r="H20">
-        <v>23.93241456230517</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.56304187928927</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.53998588896172</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.81944739543216</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.70581846064113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>26.49770764470549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.36058052471724</v>
+        <v>26.71703393280805</v>
       </c>
       <c r="C21">
-        <v>22.83047989884369</v>
+        <v>18.08351316433953</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.02589187948199</v>
+        <v>21.18630764644059</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>52.39315775199944</v>
       </c>
       <c r="G21">
-        <v>25.17609321075802</v>
+        <v>2.02980616968468</v>
       </c>
       <c r="H21">
-        <v>25.25188279854872</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.19254364875054</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.570301101792553</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.26260131575222</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.21299773686717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>27.70953364387553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41698618314538</v>
+        <v>27.78603105175775</v>
       </c>
       <c r="C22">
-        <v>23.74550187479505</v>
+        <v>18.79466462001097</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.64507574404556</v>
+        <v>21.95542915811662</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>54.26358784154311</v>
       </c>
       <c r="G22">
-        <v>26.27656519834883</v>
+        <v>2.02046411601035</v>
       </c>
       <c r="H22">
-        <v>26.14991354167016</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.64180354860451</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.59691975915466</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.17823648172423</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.17229493793537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>28.52897099204389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.85615739163114</v>
+        <v>27.21834087121528</v>
       </c>
       <c r="C23">
-        <v>23.25930784966576</v>
+        <v>18.41693696870516</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.31549288517294</v>
+        <v>21.54668010472099</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>53.26550808185841</v>
       </c>
       <c r="G23">
-        <v>25.68892390251643</v>
+        <v>2.025454587636869</v>
       </c>
       <c r="H23">
-        <v>25.66268056451693</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.39842442316792</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.582051910593763</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.69196678537201</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.66253777522434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>28.08900397086258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66451666815787</v>
+        <v>25.00365224255352</v>
       </c>
       <c r="C24">
-        <v>21.36826555074641</v>
+        <v>16.94479682663878</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.04608084987159</v>
+        <v>19.95944715561451</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>49.47844609999801</v>
       </c>
       <c r="G24">
-        <v>23.50915388139294</v>
+        <v>2.044292734216883</v>
       </c>
       <c r="H24">
-        <v>23.91122518486275</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.55336199347943</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.539597116922966</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.79537378207849</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.68072541124782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>26.47834274924174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.14570015673067</v>
+        <v>22.46530018254231</v>
       </c>
       <c r="C25">
-        <v>19.21102836595295</v>
+        <v>15.25994480146192</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.8683948389425</v>
+        <v>18.15986239309668</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>45.3677067505343</v>
       </c>
       <c r="G25">
-        <v>21.29003244383546</v>
+        <v>2.064679666197403</v>
       </c>
       <c r="H25">
-        <v>22.11521142357312</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.7910513819829</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.519481910347428</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.6223514269095</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.42208083010505</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>24.85014694411337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.45763638022585</v>
+        <v>20.60656289438455</v>
       </c>
       <c r="C2">
-        <v>13.92885655138981</v>
+        <v>11.35634966184574</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.75774503078054</v>
+        <v>6.81653867051128</v>
       </c>
       <c r="F2">
-        <v>42.31557510201647</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.079920292761953</v>
+        <v>2.070215119963002</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.6096432138656</v>
       </c>
       <c r="J2">
-        <v>5.523263403317674</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.90408621402813</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.230859892254019</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.85684964993403</v>
       </c>
       <c r="O2">
-        <v>23.73796945176072</v>
+        <v>14.00528465187948</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.00611804192868</v>
+        <v>19.22273014164783</v>
       </c>
       <c r="C3">
-        <v>12.96721723136187</v>
+        <v>10.84070851511049</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.7599030942405</v>
+        <v>6.824800981359197</v>
       </c>
       <c r="F3">
-        <v>40.23419770957685</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.090464657207538</v>
+        <v>2.075371138667726</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.75736012926644</v>
       </c>
       <c r="J3">
-        <v>5.535876456443151</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.66200087013021</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.976800067539686</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.9551787182127</v>
       </c>
       <c r="O3">
-        <v>23.03566993264203</v>
+        <v>13.85417064722541</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.06874396675762</v>
+        <v>18.3221829027394</v>
       </c>
       <c r="C4">
-        <v>12.34650160811191</v>
+        <v>10.51087716758766</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.12436344002308</v>
+        <v>6.834423543489837</v>
       </c>
       <c r="F4">
-        <v>38.95211319919316</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.097066101175387</v>
+        <v>2.078635287838194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.86176648626833</v>
       </c>
       <c r="J4">
-        <v>5.548113780840941</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.85995429452837</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.819719766309063</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.01935746575937</v>
       </c>
       <c r="O4">
-        <v>22.62907757152069</v>
+        <v>13.77692313677117</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.6749787484045</v>
+        <v>17.94233908453917</v>
       </c>
       <c r="C5">
-        <v>12.08582458456221</v>
+        <v>10.3732459907619</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.85978022276681</v>
+        <v>6.839454950881393</v>
       </c>
       <c r="F5">
-        <v>38.42909658175329</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.099791011154052</v>
+        <v>2.079990768868764</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.90757685327096</v>
       </c>
       <c r="J5">
-        <v>5.554165865822818</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.52305333071954</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.755528028807676</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.04645040701468</v>
       </c>
       <c r="O5">
-        <v>22.4694707520486</v>
+        <v>13.74923979531605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.60887806271894</v>
+        <v>17.87848729074914</v>
       </c>
       <c r="C6">
-        <v>12.04206914959244</v>
+        <v>10.35020121531406</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.81551400770802</v>
+        <v>6.840356469262137</v>
       </c>
       <c r="F6">
-        <v>38.34223258500514</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.100245657600158</v>
+        <v>2.080217391034942</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.91537560707019</v>
       </c>
       <c r="J6">
-        <v>5.555233340743841</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.46649929263505</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.74486101718936</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.05100544684655</v>
       </c>
       <c r="O6">
-        <v>22.44333218113104</v>
+        <v>13.74486875031287</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.06348142351569</v>
+        <v>18.31711237524801</v>
       </c>
       <c r="C7">
-        <v>12.34301747821917</v>
+        <v>10.50903392172691</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.12081759102424</v>
+        <v>6.834486948731811</v>
       </c>
       <c r="F7">
-        <v>38.94506115468954</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.097102705963573</v>
+        <v>2.078653465075976</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.86237131975315</v>
       </c>
       <c r="J7">
-        <v>5.548191170400848</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.85545165924695</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.818854655465683</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.01971906775544</v>
       </c>
       <c r="O7">
-        <v>22.62690057911558</v>
+        <v>13.77653457726634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.96661819119164</v>
+        <v>20.13993116816495</v>
       </c>
       <c r="C8">
-        <v>13.60348943333598</v>
+        <v>11.18135798213128</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.41850824458318</v>
+        <v>6.818422946307964</v>
       </c>
       <c r="F8">
-        <v>41.5990185183136</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.083531353517564</v>
+        <v>2.071972868394111</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.65761783791094</v>
       </c>
       <c r="J8">
-        <v>5.526639801302493</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.48389741968728</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.143538946459321</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.88995322999287</v>
       </c>
       <c r="O8">
-        <v>23.49064258692899</v>
+        <v>13.94989280635445</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.3412621128516</v>
+        <v>23.31418033677395</v>
       </c>
       <c r="C9">
-        <v>15.84111096082474</v>
+        <v>12.39120405785106</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.77799040692135</v>
+        <v>6.824524641976937</v>
       </c>
       <c r="F9">
-        <v>46.75643521808762</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.057787121338708</v>
+        <v>2.059624409877945</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.37356473859775</v>
       </c>
       <c r="J9">
-        <v>5.523150065373559</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.37216286509553</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.767956627664859</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.66650913599332</v>
       </c>
       <c r="O9">
-        <v>25.38474447857763</v>
+        <v>14.41743423443364</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.61600791502806</v>
+        <v>25.40698163729757</v>
       </c>
       <c r="C10">
-        <v>17.35162260717293</v>
+        <v>13.21013993679925</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.39698360956746</v>
+        <v>6.853970908484164</v>
       </c>
       <c r="F10">
-        <v>50.50795008293635</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.03918341805509</v>
+        <v>2.050969084825436</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.24913900921268</v>
       </c>
       <c r="J10">
-        <v>5.548921564284296</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.31970947711966</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.214949835311522</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.52254229230341</v>
       </c>
       <c r="O10">
-        <v>26.90650004196262</v>
+        <v>14.84366807379462</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.60975669200418</v>
+        <v>26.30813498834284</v>
       </c>
       <c r="C11">
-        <v>18.01217781781999</v>
+        <v>13.566996240336</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.10926529379606</v>
+        <v>6.873215897130932</v>
       </c>
       <c r="F11">
-        <v>52.20759818126116</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.03073068658439</v>
+        <v>2.047112330197381</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.21374772078719</v>
       </c>
       <c r="J11">
-        <v>5.567952251527228</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23.17072410834661</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.415022988493972</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.46175357438734</v>
       </c>
       <c r="O11">
-        <v>27.62944335668169</v>
+        <v>15.05634170979802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.98047579814082</v>
+        <v>26.64215024015875</v>
       </c>
       <c r="C12">
-        <v>18.25871547625283</v>
+        <v>13.69984560897325</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.37561601953031</v>
+        <v>6.881379019689837</v>
       </c>
       <c r="F12">
-        <v>52.85051886141029</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.027525812390724</v>
+        <v>2.045662605607779</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.2036472702</v>
       </c>
       <c r="J12">
-        <v>5.576316505460773</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.48823243981699</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.49026766649102</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.43944062867339</v>
       </c>
       <c r="O12">
-        <v>27.90788311756568</v>
+        <v>15.13962627999555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.90087815823055</v>
+        <v>26.57053436445059</v>
       </c>
       <c r="C13">
-        <v>18.20577544568235</v>
+        <v>13.67133607679954</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.31840055392531</v>
+        <v>6.879581469172767</v>
       </c>
       <c r="F13">
-        <v>52.71207887243133</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.028216313160794</v>
+        <v>2.045974365942408</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.2056716808144</v>
       </c>
       <c r="J13">
-        <v>5.574461803955071</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.42005802355651</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.474086133764267</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.44421419215036</v>
       </c>
       <c r="O13">
-        <v>27.84770313665278</v>
+        <v>15.12156646603885</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.64036613429883</v>
+        <v>26.3357590757091</v>
       </c>
       <c r="C14">
-        <v>18.03253139551218</v>
+        <v>13.57797175161842</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.13124499832189</v>
+        <v>6.873869742291523</v>
       </c>
       <c r="F14">
-        <v>52.26050333683043</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.030467134099989</v>
+        <v>2.046992850190306</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.21284912217912</v>
       </c>
       <c r="J14">
-        <v>5.568616529815183</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>23.19693928216987</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.421224057910958</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.45990353438028</v>
       </c>
       <c r="O14">
-        <v>27.65225525997181</v>
+        <v>15.0631382204608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.48007661176611</v>
+        <v>26.19101314032782</v>
       </c>
       <c r="C15">
-        <v>17.92595265013976</v>
+        <v>13.52048521911221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.01617122112949</v>
+        <v>6.87048616314396</v>
       </c>
       <c r="F15">
-        <v>51.9838210432028</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.031845129345179</v>
+        <v>2.047618074411785</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.21768302968869</v>
       </c>
       <c r="J15">
-        <v>5.565190260196317</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.05966232312976</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.388775658781588</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.46960664976423</v>
       </c>
       <c r="O15">
-        <v>27.53315592410872</v>
+        <v>15.02770864516206</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.5502638419418</v>
+        <v>25.34707253265461</v>
       </c>
       <c r="C16">
-        <v>17.30793720676248</v>
+        <v>13.18650023391756</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.34995526758484</v>
+        <v>6.852833858253208</v>
       </c>
       <c r="F16">
-        <v>50.39675609819645</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.039735578157266</v>
+        <v>2.05122268368366</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.25190006473666</v>
       </c>
       <c r="J16">
-        <v>5.547833811075533</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>22.26341312624203</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.201804467855608</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.52661212515677</v>
       </c>
       <c r="O16">
-        <v>26.85989248154142</v>
+        <v>14.83015163662603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.96955053857415</v>
+        <v>24.81637116494429</v>
       </c>
       <c r="C17">
-        <v>16.92214549881863</v>
+        <v>12.97757056150242</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.93511478901344</v>
+        <v>6.843527569606541</v>
       </c>
       <c r="F17">
-        <v>49.42152521079421</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.044575059786167</v>
+        <v>2.05345405395891</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.27850036512281</v>
       </c>
       <c r="J17">
-        <v>5.53913062127461</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.76617525550973</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.086229447006364</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.56280821035815</v>
       </c>
       <c r="O17">
-        <v>26.45489343097469</v>
+        <v>14.71380429502908</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.63165569743609</v>
+        <v>24.50633227111597</v>
       </c>
       <c r="C18">
-        <v>16.69773121852422</v>
+        <v>12.85592475330689</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.69422199703145</v>
+        <v>6.838723428623229</v>
       </c>
       <c r="F18">
-        <v>48.85991736508817</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.047359929248301</v>
+        <v>2.05474511907701</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.29578107357305</v>
       </c>
       <c r="J18">
-        <v>5.534805572823444</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.47687099199619</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.019448672510601</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.58406789723518</v>
       </c>
       <c r="O18">
-        <v>26.22481779299601</v>
+        <v>14.64864950802795</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.51657439208541</v>
+        <v>24.40053264210349</v>
       </c>
       <c r="C19">
-        <v>16.62130976050723</v>
+        <v>12.81448530865476</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.61226445251707</v>
+        <v>6.837189995977974</v>
       </c>
       <c r="F19">
-        <v>48.66964336953487</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.048303220919801</v>
+        <v>2.055183588532361</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.30196469933997</v>
       </c>
       <c r="J19">
-        <v>5.533455020388564</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.37834196803121</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.996787089967719</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.5913408685652</v>
       </c>
       <c r="O19">
-        <v>26.14740399823281</v>
+        <v>14.626890725197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.03176830249272</v>
+        <v>24.87336074511361</v>
       </c>
       <c r="C20">
-        <v>16.96347267261404</v>
+        <v>12.99996438287757</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.97951139024509</v>
+        <v>6.844461212788577</v>
       </c>
       <c r="F20">
-        <v>49.52540905423763</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.044059788553344</v>
+        <v>2.053215736016701</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.2754618998601</v>
       </c>
       <c r="J20">
-        <v>5.53998588896172</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.81944739543216</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.098564562801487</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.55890925889151</v>
       </c>
       <c r="O20">
-        <v>26.49770764470549</v>
+        <v>14.7260065982501</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71703393280805</v>
+        <v>26.404913863736</v>
       </c>
       <c r="C21">
-        <v>18.08351316433953</v>
+        <v>13.60545729721039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.18630764644059</v>
+        <v>6.875523384840849</v>
       </c>
       <c r="F21">
-        <v>52.39315775199944</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.02980616968468</v>
+        <v>2.046693412093372</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.21064929838172</v>
       </c>
       <c r="J21">
-        <v>5.570301101792553</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>23.26260131575222</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.436765354640595</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.45527576781612</v>
       </c>
       <c r="O21">
-        <v>27.70953364387553</v>
+        <v>15.08022503457388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.78603105175775</v>
+        <v>27.36375970783441</v>
       </c>
       <c r="C22">
-        <v>18.79466462001097</v>
+        <v>13.98786031475849</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.95542915811662</v>
+        <v>6.900942662043613</v>
       </c>
       <c r="F22">
-        <v>54.26358784154311</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.02046411601035</v>
+        <v>2.042492889752162</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.18765458113251</v>
       </c>
       <c r="J22">
-        <v>5.59691975915466</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>24.17823648172423</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.654759292623062</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.39167887269415</v>
       </c>
       <c r="O22">
-        <v>28.52897099204389</v>
+        <v>15.32777196042447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21834087121528</v>
+        <v>26.8558306411587</v>
       </c>
       <c r="C23">
-        <v>18.41693696870516</v>
+        <v>13.78499063841366</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.54668010472099</v>
+        <v>6.886896413454558</v>
       </c>
       <c r="F23">
-        <v>53.26550808185841</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.025454587636869</v>
+        <v>2.044729391476389</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.19807090515267</v>
       </c>
       <c r="J23">
-        <v>5.582051910593763</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.69196678537201</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.538703887609216</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.4252328073432</v>
       </c>
       <c r="O23">
-        <v>28.08900397086258</v>
+        <v>15.19416914763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.00365224255352</v>
+        <v>24.84761112305794</v>
       </c>
       <c r="C24">
-        <v>16.94479682663878</v>
+        <v>12.98984489749589</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.95944715561451</v>
+        <v>6.844037414116875</v>
       </c>
       <c r="F24">
-        <v>49.47844609999801</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.044292734216883</v>
+        <v>2.053323453889452</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.27682941730241</v>
       </c>
       <c r="J24">
-        <v>5.539597116922966</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.79537378207849</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.092988897066265</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.56067057521726</v>
       </c>
       <c r="O24">
-        <v>26.47834274924174</v>
+        <v>14.72048453712557</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.46530018254231</v>
+        <v>22.4978360852812</v>
       </c>
       <c r="C25">
-        <v>15.25994480146192</v>
+        <v>12.07597486169192</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.15986239309668</v>
+        <v>6.818636329676155</v>
       </c>
       <c r="F25">
-        <v>45.3677067505343</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.064679666197403</v>
+        <v>2.062888604374946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.43656520712005</v>
       </c>
       <c r="J25">
-        <v>5.519481910347428</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.6223514269095</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.600826408675046</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.72351027050302</v>
       </c>
       <c r="O25">
-        <v>24.85014694411337</v>
+        <v>14.27673230196521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.60656289438455</v>
+        <v>15.0430770272853</v>
       </c>
       <c r="C2">
-        <v>11.35634966184574</v>
+        <v>9.33960046570504</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.81653867051128</v>
+        <v>11.33263631685594</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.070215119963002</v>
+        <v>3.623531093483944</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.6096432138656</v>
+        <v>21.02444577804193</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.230859892254019</v>
+        <v>9.779408433516078</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.85684964993403</v>
+        <v>16.9816204737432</v>
       </c>
       <c r="O2">
-        <v>14.00528465187948</v>
+        <v>20.96264503873406</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.22273014164783</v>
+        <v>14.53230061879652</v>
       </c>
       <c r="C3">
-        <v>10.84070851511049</v>
+        <v>9.131815313324816</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.824800981359197</v>
+        <v>11.36676225565127</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.075371138667726</v>
+        <v>3.625505936589418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.75736012926644</v>
+        <v>21.13184774284021</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.976800067539686</v>
+        <v>9.753841679127893</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.9551787182127</v>
+        <v>17.02230160730527</v>
       </c>
       <c r="O3">
-        <v>13.85417064722541</v>
+        <v>21.0265966940832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3221829027394</v>
+        <v>14.211065880304</v>
       </c>
       <c r="C4">
-        <v>10.51087716758766</v>
+        <v>9.000689545531557</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.834423543489837</v>
+        <v>11.38962252686372</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.078635287838194</v>
+        <v>3.62678313366008</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.86176648626833</v>
+        <v>21.20264681174368</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.819719766309063</v>
+        <v>9.739849734517943</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.01935746575937</v>
+        <v>17.04911196219501</v>
       </c>
       <c r="O4">
-        <v>13.77692313677117</v>
+        <v>21.07155023170489</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94233908453917</v>
+        <v>14.07844346458596</v>
       </c>
       <c r="C5">
-        <v>10.3732459907619</v>
+        <v>8.946410638612825</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.839454950881393</v>
+        <v>11.39941759420968</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.079990768868764</v>
+        <v>3.627319906050325</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.90757685327096</v>
+        <v>21.23271646862696</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.755528028807676</v>
+        <v>9.734581095834665</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.04645040701468</v>
+        <v>17.06049879229157</v>
       </c>
       <c r="O5">
-        <v>13.74923979531605</v>
+        <v>21.09129398156967</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87848729074914</v>
+        <v>14.0563240782176</v>
       </c>
       <c r="C6">
-        <v>10.35020121531406</v>
+        <v>8.937348121460062</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.840356469262137</v>
+        <v>11.40107300257407</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.080217391034942</v>
+        <v>3.627410022934688</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.91537560707019</v>
+        <v>21.23778304467472</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.74486101718936</v>
+        <v>9.733732520409013</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.05100544684655</v>
+        <v>17.06241745535505</v>
       </c>
       <c r="O6">
-        <v>13.74486875031287</v>
+        <v>21.09465831362905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31711237524801</v>
+        <v>14.20928396347803</v>
       </c>
       <c r="C7">
-        <v>10.50903392172691</v>
+        <v>8.99996087443156</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.834486948731811</v>
+        <v>11.38975268602951</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.078653465075976</v>
+        <v>3.626790306677337</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.86237131975315</v>
+        <v>21.20304741086784</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.818854655465683</v>
+        <v>9.739776920612304</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.01971906775544</v>
+        <v>17.04926365983754</v>
       </c>
       <c r="O7">
-        <v>13.77653457726634</v>
+        <v>21.07181074091164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13993116816495</v>
+        <v>14.86865559534553</v>
       </c>
       <c r="C8">
-        <v>11.18135798213128</v>
+        <v>9.268719394720241</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.818422946307964</v>
+        <v>11.34400709055803</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.071972868394111</v>
+        <v>3.624198635116394</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.65761783791094</v>
+        <v>21.0604693084837</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.143538946459321</v>
+        <v>9.770241518882255</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.88995322999287</v>
+        <v>16.99526753728933</v>
       </c>
       <c r="O8">
-        <v>13.94989280635445</v>
+        <v>20.98351219075155</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.31418033677395</v>
+        <v>16.0934298020004</v>
       </c>
       <c r="C9">
-        <v>12.39120405785106</v>
+        <v>9.765692703681941</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.824524641976937</v>
+        <v>11.26943662352095</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.059624409877945</v>
+        <v>3.619626894953373</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.37356473859775</v>
+        <v>20.81948061616312</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.767956627664859</v>
+        <v>9.843320833995568</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.66650913599332</v>
+        <v>16.90388516647577</v>
       </c>
       <c r="O9">
-        <v>14.41743423443364</v>
+        <v>20.85570349205033</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.40698163729757</v>
+        <v>16.94240995386489</v>
       </c>
       <c r="C10">
-        <v>13.21013993679925</v>
+        <v>10.11010613831209</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.853970908484164</v>
+        <v>11.22388614205287</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.050969084825436</v>
+        <v>3.616575997352896</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.24913900921268</v>
+        <v>20.6660913800636</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.214949835311522</v>
+        <v>9.904854000866067</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52254229230341</v>
+        <v>16.84554532185323</v>
       </c>
       <c r="O10">
-        <v>14.84366807379462</v>
+        <v>20.78972918766196</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.30813498834284</v>
+        <v>17.31596444255711</v>
       </c>
       <c r="C11">
-        <v>13.566996240336</v>
+        <v>10.26184373675861</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.873215897130932</v>
+        <v>11.20517129112285</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.047112330197381</v>
+        <v>3.61525424077359</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.21374772078719</v>
+        <v>20.60147830740542</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.415022988493972</v>
+        <v>9.934480713797431</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.46175357438734</v>
+        <v>16.82090670673785</v>
       </c>
       <c r="O11">
-        <v>15.05634170979802</v>
+        <v>20.76583338523513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.64215024015875</v>
+        <v>17.45548572853392</v>
       </c>
       <c r="C12">
-        <v>13.69984560897325</v>
+        <v>10.31855913216458</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.881379019689837</v>
+        <v>11.19837309387291</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.045662605607779</v>
+        <v>3.614763180146083</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.2036472702</v>
+        <v>20.57775626697595</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.49026766649102</v>
+        <v>9.945928295930614</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.43944062867339</v>
+        <v>16.81184932922546</v>
       </c>
       <c r="O12">
-        <v>15.13962627999555</v>
+        <v>20.75766794490472</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.57053436445059</v>
+        <v>17.42552512074742</v>
       </c>
       <c r="C13">
-        <v>13.67133607679954</v>
+        <v>10.30637807811003</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.879581469172767</v>
+        <v>11.19982436370518</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.045974365942408</v>
+        <v>3.61486851885013</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.2056716808144</v>
+        <v>20.58283202873206</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.474086133764267</v>
+        <v>9.943452794844234</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.44421419215036</v>
+        <v>16.81378787640839</v>
       </c>
       <c r="O13">
-        <v>15.12156646603885</v>
+        <v>20.75938717269594</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.3357590757091</v>
+        <v>17.32748235460506</v>
       </c>
       <c r="C14">
-        <v>13.57797175161842</v>
+        <v>10.26652485066248</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.873869742291523</v>
+        <v>11.20460621203114</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.046992850190306</v>
+        <v>3.615213651597124</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.21284912217912</v>
+        <v>20.5995117226489</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.421224057910958</v>
+        <v>9.935417970451427</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.45990353438028</v>
+        <v>16.82015608802272</v>
       </c>
       <c r="O14">
-        <v>15.0631382204608</v>
+        <v>20.76514388455486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.19101314032782</v>
+        <v>17.26717302637661</v>
       </c>
       <c r="C15">
-        <v>13.52048521911221</v>
+        <v>10.24201569299484</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.87048616314396</v>
+        <v>11.20757283668849</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.047618074411785</v>
+        <v>3.615426285942971</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.21768302968869</v>
+        <v>20.60982569310928</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.388775658781588</v>
+        <v>9.93052597874123</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.46960664976423</v>
+        <v>16.82409230296897</v>
       </c>
       <c r="O15">
-        <v>15.02770864516206</v>
+        <v>20.76878518701408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.34707253265461</v>
+        <v>16.9177324389945</v>
       </c>
       <c r="C16">
-        <v>13.18650023391756</v>
+        <v>10.10008737309597</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.852833858253208</v>
+        <v>11.22514959156062</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.05122268368366</v>
+        <v>3.61666370357758</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.25190006473666</v>
+        <v>20.67041816376677</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.201804467855608</v>
+        <v>9.902950175356604</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.52661212515677</v>
+        <v>16.84719370795365</v>
       </c>
       <c r="O16">
-        <v>14.83015163662603</v>
+        <v>20.79141424946715</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.81637116494429</v>
+        <v>16.70003434178127</v>
       </c>
       <c r="C17">
-        <v>12.97757056150242</v>
+        <v>10.01172896806899</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.843527569606541</v>
+        <v>11.23644637534291</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.05345405395891</v>
+        <v>3.617439718586707</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.27850036512281</v>
+        <v>20.70891445865095</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.086229447006364</v>
+        <v>9.886447532080826</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.56280821035815</v>
+        <v>16.86185202938864</v>
       </c>
       <c r="O17">
-        <v>14.71380429502908</v>
+        <v>20.80686584837446</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.50633227111597</v>
+        <v>16.5736354232893</v>
       </c>
       <c r="C18">
-        <v>12.85592475330689</v>
+        <v>9.960444651035365</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.838723428623229</v>
+        <v>11.24313281703842</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.05474511907701</v>
+        <v>3.617892287454906</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.29578107357305</v>
+        <v>20.73154243654056</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.019448672510601</v>
+        <v>9.877109949818212</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.58406789723518</v>
+        <v>16.87046202188517</v>
       </c>
       <c r="O18">
-        <v>14.64864950802795</v>
+        <v>20.81632868262179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.40053264210349</v>
+        <v>16.53063922576298</v>
       </c>
       <c r="C19">
-        <v>12.81448530865476</v>
+        <v>9.943002249785081</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.837189995977974</v>
+        <v>11.2454291564409</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.055183588532361</v>
+        <v>3.618046590180098</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.30196469933997</v>
+        <v>20.73928725258417</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.996787089967719</v>
+        <v>9.873975099712407</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.5913408685652</v>
+        <v>16.87340796314074</v>
       </c>
       <c r="O19">
-        <v>14.626890725197</v>
+        <v>20.81963135077221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.87336074511361</v>
+        <v>16.7233321797827</v>
       </c>
       <c r="C20">
-        <v>12.99996438287757</v>
+        <v>10.02118303673868</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.844461212788577</v>
+        <v>11.23522426861227</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.053215736016701</v>
+        <v>3.617356466483491</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.2754618998601</v>
+        <v>20.70476614995869</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.098564562801487</v>
+        <v>9.888188343190825</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.55890925889151</v>
+        <v>16.8602731132042</v>
       </c>
       <c r="O20">
-        <v>14.7260065982501</v>
+        <v>20.80516140954734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.404913863736</v>
+        <v>17.35633328503975</v>
       </c>
       <c r="C21">
-        <v>13.60545729721039</v>
+        <v>10.27825117025611</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.875523384840849</v>
+        <v>11.20319383018117</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.046693412093372</v>
+        <v>3.615112021375983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.21064929838172</v>
+        <v>20.59459223553901</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.436765354640595</v>
+        <v>9.937771842799826</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.45527576781612</v>
+        <v>16.81827819240242</v>
       </c>
       <c r="O21">
-        <v>15.08022503457388</v>
+        <v>20.76342899520638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.36375970783441</v>
+        <v>17.75870898664012</v>
       </c>
       <c r="C22">
-        <v>13.98786031475849</v>
+        <v>10.44190751399667</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.900942662043613</v>
+        <v>11.18394299562093</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.042492889752162</v>
+        <v>3.613700264793505</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.18765458113251</v>
+        <v>20.52693409898021</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.654759292623062</v>
+        <v>9.971506677388605</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.39167887269415</v>
+        <v>16.79242152348837</v>
       </c>
       <c r="O22">
-        <v>15.32777196042447</v>
+        <v>20.74130497319281</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.8558306411587</v>
+        <v>17.54502486749947</v>
       </c>
       <c r="C23">
-        <v>13.78499063841366</v>
+        <v>10.35496991387575</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.886896413454558</v>
+        <v>11.19406347854539</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.044729391476389</v>
+        <v>3.614448717954813</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.19807090515267</v>
+        <v>20.56264581181028</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.538703887609216</v>
+        <v>9.953382376946697</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.4252328073432</v>
+        <v>16.80607646001644</v>
       </c>
       <c r="O23">
-        <v>15.19416914763</v>
+        <v>20.75264053533171</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.84761112305794</v>
+        <v>16.71280308483872</v>
       </c>
       <c r="C24">
-        <v>12.98984489749589</v>
+        <v>10.0169103631509</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.844037414116875</v>
+        <v>11.23577618574278</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.053323453889452</v>
+        <v>3.617394084734266</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.27682941730241</v>
+        <v>20.70664005567392</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.092988897066265</v>
+        <v>9.887400854744401</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56067057521726</v>
+        <v>16.86098637197196</v>
       </c>
       <c r="O24">
-        <v>14.72048453712557</v>
+        <v>20.80593018149931</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4978360852812</v>
+        <v>15.77042376950782</v>
       </c>
       <c r="C25">
-        <v>12.07597486169192</v>
+        <v>9.634724144620135</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.818636329676155</v>
+        <v>11.2879884706404</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.062888604374946</v>
+        <v>3.620809356195789</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.43656520712005</v>
+        <v>20.88052818776773</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.600826408675046</v>
+        <v>9.822151421787503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.72351027050302</v>
+        <v>16.92705829865755</v>
       </c>
       <c r="O25">
-        <v>14.27673230196521</v>
+        <v>20.88539405287058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.0430770272853</v>
+        <v>20.60656289438452</v>
       </c>
       <c r="C2">
-        <v>9.33960046570504</v>
+        <v>11.35634966184563</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.33263631685594</v>
+        <v>6.816538670511337</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.623531093483944</v>
+        <v>2.070215119963403</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.02444577804193</v>
+        <v>12.60964321386567</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.779408433516078</v>
+        <v>7.230859892254054</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.9816204737432</v>
+        <v>11.85684964993403</v>
       </c>
       <c r="O2">
-        <v>20.96264503873406</v>
+        <v>14.00528465187956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.53230061879652</v>
+        <v>19.22273014164783</v>
       </c>
       <c r="C3">
-        <v>9.131815313324816</v>
+        <v>10.84070851511019</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.36676225565127</v>
+        <v>6.824800981359261</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.625505936589418</v>
+        <v>2.075371138667593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.13184774284021</v>
+        <v>12.75736012926656</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.753841679127893</v>
+        <v>6.976800067539737</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.02230160730527</v>
+        <v>11.95517871821276</v>
       </c>
       <c r="O3">
-        <v>21.0265966940832</v>
+        <v>13.85417064722556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.211065880304</v>
+        <v>18.32218290273938</v>
       </c>
       <c r="C4">
-        <v>9.000689545531557</v>
+        <v>10.51087716758769</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.38962252686372</v>
+        <v>6.834423543489902</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.62678313366008</v>
+        <v>2.078635287838194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.20264681174368</v>
+        <v>12.86176648626842</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.739849734517943</v>
+        <v>6.819719766309039</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.04911196219501</v>
+        <v>12.01935746575943</v>
       </c>
       <c r="O4">
-        <v>21.07155023170489</v>
+        <v>13.77692313677122</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.07844346458596</v>
+        <v>17.94233908453924</v>
       </c>
       <c r="C5">
-        <v>8.946410638612825</v>
+        <v>10.37324599076196</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.39941759420968</v>
+        <v>6.839454950881456</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.627319906050325</v>
+        <v>2.079990768868898</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.23271646862696</v>
+        <v>12.90757685327091</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.734581095834665</v>
+        <v>6.755528028807646</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.06049879229157</v>
+        <v>12.04645040701467</v>
       </c>
       <c r="O5">
-        <v>21.09129398156967</v>
+        <v>13.74923979531597</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.0563240782176</v>
+        <v>17.8784872907491</v>
       </c>
       <c r="C6">
-        <v>8.937348121460062</v>
+        <v>10.35020121531396</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.40107300257407</v>
+        <v>6.840356469262142</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.627410022934688</v>
+        <v>2.08021739103494</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.23778304467472</v>
+        <v>12.91537560707035</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.733732520409013</v>
+        <v>6.744861017189365</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.06241745535505</v>
+        <v>12.05100544684658</v>
       </c>
       <c r="O6">
-        <v>21.09465831362905</v>
+        <v>13.74486875031303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.20928396347803</v>
+        <v>18.31711237524798</v>
       </c>
       <c r="C7">
-        <v>8.99996087443156</v>
+        <v>10.5090339217269</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.38975268602951</v>
+        <v>6.834486948731758</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.626790306677337</v>
+        <v>2.078653465075976</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.20304741086784</v>
+        <v>12.86237131975316</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.739776920612304</v>
+        <v>6.818854655465666</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.04926365983754</v>
+        <v>12.0197190677554</v>
       </c>
       <c r="O7">
-        <v>21.07181074091164</v>
+        <v>13.77653457726635</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.86865559534553</v>
+        <v>20.13993116816501</v>
       </c>
       <c r="C8">
-        <v>9.268719394720241</v>
+        <v>11.18135798213118</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.34400709055803</v>
+        <v>6.818422946308027</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.624198635116394</v>
+        <v>2.07197286839411</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.0604693084837</v>
+        <v>12.65761783791094</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.770241518882255</v>
+        <v>7.143538946459343</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.99526753728933</v>
+        <v>11.88995322999289</v>
       </c>
       <c r="O8">
-        <v>20.98351219075155</v>
+        <v>13.94989280635444</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.0934298020004</v>
+        <v>23.31418033677396</v>
       </c>
       <c r="C9">
-        <v>9.765692703681941</v>
+        <v>12.39120405785099</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.26943662352095</v>
+        <v>6.824524641976878</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.619626894953373</v>
+        <v>2.059624409877946</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.81948061616312</v>
+        <v>12.37356473859778</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.843320833995568</v>
+        <v>7.767956627664859</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.90388516647577</v>
+        <v>11.66650913599332</v>
       </c>
       <c r="O9">
-        <v>20.85570349205033</v>
+        <v>14.41743423443371</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.94240995386489</v>
+        <v>25.40698163729753</v>
       </c>
       <c r="C10">
-        <v>10.11010613831209</v>
+        <v>13.21013993679941</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.22388614205287</v>
+        <v>6.853970908484265</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.616575997352896</v>
+        <v>2.050969084825435</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.6660913800636</v>
+        <v>12.24913900921279</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.904854000866067</v>
+        <v>8.214949835311518</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.84554532185323</v>
+        <v>11.52254229230341</v>
       </c>
       <c r="O10">
-        <v>20.78972918766196</v>
+        <v>14.84366807379463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.31596444255711</v>
+        <v>26.30813498834284</v>
       </c>
       <c r="C11">
-        <v>10.26184373675861</v>
+        <v>13.56699624033574</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.20517129112285</v>
+        <v>6.87321589713084</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.61525424077359</v>
+        <v>2.047112330197514</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.60147830740542</v>
+        <v>12.21374772078721</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.934480713797431</v>
+        <v>8.415022988493972</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.82090670673785</v>
+        <v>11.46175357438737</v>
       </c>
       <c r="O11">
-        <v>20.76583338523513</v>
+        <v>15.05634170979808</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.45548572853392</v>
+        <v>26.6421502401588</v>
       </c>
       <c r="C12">
-        <v>10.31855913216458</v>
+        <v>13.69984560897315</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.19837309387291</v>
+        <v>6.881379019689791</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.614763180146083</v>
+        <v>2.045662605607914</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.57775626697595</v>
+        <v>12.20364727019995</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.945928295930614</v>
+        <v>8.49026766649102</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.81184932922546</v>
+        <v>11.43944062867335</v>
       </c>
       <c r="O12">
-        <v>20.75766794490472</v>
+        <v>15.13962627999556</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.42552512074742</v>
+        <v>26.57053436445061</v>
       </c>
       <c r="C13">
-        <v>10.30637807811003</v>
+        <v>13.67133607679954</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.19982436370518</v>
+        <v>6.879581469172765</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.61486851885013</v>
+        <v>2.045974365942408</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.58283202873206</v>
+        <v>12.20567168081436</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.943452794844234</v>
+        <v>8.474086133764253</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.81378787640839</v>
+        <v>11.44421419215036</v>
       </c>
       <c r="O13">
-        <v>20.75938717269594</v>
+        <v>15.12156646603883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.32748235460506</v>
+        <v>26.33575907570912</v>
       </c>
       <c r="C14">
-        <v>10.26652485066248</v>
+        <v>13.57797175161847</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.20460621203114</v>
+        <v>6.87386974229143</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.615213651597124</v>
+        <v>2.046992850190305</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.5995117226489</v>
+        <v>12.21284912217919</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.935417970451427</v>
+        <v>8.421224057910941</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.82015608802272</v>
+        <v>11.45990353438037</v>
       </c>
       <c r="O14">
-        <v>20.76514388455486</v>
+        <v>15.06313822046084</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.26717302637661</v>
+        <v>26.19101314032794</v>
       </c>
       <c r="C15">
-        <v>10.24201569299484</v>
+        <v>13.52048521911205</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.20757283668849</v>
+        <v>6.87048616314392</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.615426285942971</v>
+        <v>2.04761807441192</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.60982569310928</v>
+        <v>12.2176830296886</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.93052597874123</v>
+        <v>8.388775658781594</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.82409230296897</v>
+        <v>11.4696066497642</v>
       </c>
       <c r="O15">
-        <v>20.76878518701408</v>
+        <v>15.02770864516205</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.9177324389945</v>
+        <v>25.34707253265459</v>
       </c>
       <c r="C16">
-        <v>10.10008737309597</v>
+        <v>13.18650023391754</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.22514959156062</v>
+        <v>6.852833858253213</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.61666370357758</v>
+        <v>2.051222683683661</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.67041816376677</v>
+        <v>12.25190006473672</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.902950175356604</v>
+        <v>8.201804467855613</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.84719370795365</v>
+        <v>11.52661212515676</v>
       </c>
       <c r="O16">
-        <v>20.79141424946715</v>
+        <v>14.83015163662608</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.70003434178127</v>
+        <v>24.81637116494439</v>
       </c>
       <c r="C17">
-        <v>10.01172896806899</v>
+        <v>12.97757056150236</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.23644637534291</v>
+        <v>6.843527569606497</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.617439718586707</v>
+        <v>2.053454053958909</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.70891445865095</v>
+        <v>12.27850036512261</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.886447532080826</v>
+        <v>8.086229447006371</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.86185202938864</v>
+        <v>11.56280821035805</v>
       </c>
       <c r="O17">
-        <v>20.80686584837446</v>
+        <v>14.71380429502895</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.5736354232893</v>
+        <v>24.50633227111597</v>
       </c>
       <c r="C18">
-        <v>9.960444651035365</v>
+        <v>12.85592475330679</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.24313281703842</v>
+        <v>6.838723428623275</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.617892287454906</v>
+        <v>2.054745119076875</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.73154243654056</v>
+        <v>12.29578107357313</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.877109949818212</v>
+        <v>8.019448672510592</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.87046202188517</v>
+        <v>11.5840678972352</v>
       </c>
       <c r="O18">
-        <v>20.81632868262179</v>
+        <v>14.64864950802804</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53063922576298</v>
+        <v>24.40053264210351</v>
       </c>
       <c r="C19">
-        <v>9.943002249785081</v>
+        <v>12.81448530865476</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.2454291564409</v>
+        <v>6.837189995978027</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.618046590180098</v>
+        <v>2.055183588532494</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.73928725258417</v>
+        <v>12.30196469934</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.873975099712407</v>
+        <v>7.996787089967748</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.87340796314074</v>
+        <v>11.59134086856523</v>
       </c>
       <c r="O19">
-        <v>20.81963135077221</v>
+        <v>14.62689072519703</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.7233321797827</v>
+        <v>24.87336074511361</v>
       </c>
       <c r="C20">
-        <v>10.02118303673868</v>
+        <v>12.99996438287746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.23522426861227</v>
+        <v>6.844461212788542</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.617356466483491</v>
+        <v>2.053215736016699</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.70476614995869</v>
+        <v>12.27546189986009</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.888188343190825</v>
+        <v>8.098564562801466</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.8602731132042</v>
+        <v>11.55890925889147</v>
       </c>
       <c r="O20">
-        <v>20.80516140954734</v>
+        <v>14.72600659825012</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35633328503975</v>
+        <v>26.40491386373607</v>
       </c>
       <c r="C21">
-        <v>10.27825117025611</v>
+        <v>13.60545729721038</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.20319383018117</v>
+        <v>6.875523384840812</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.615112021375983</v>
+        <v>2.046693412093105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.59459223553901</v>
+        <v>12.21064929838162</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.937771842799826</v>
+        <v>8.436765354640595</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.81827819240242</v>
+        <v>11.45527576781604</v>
       </c>
       <c r="O21">
-        <v>20.76342899520638</v>
+        <v>15.08022503457384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.75870898664012</v>
+        <v>27.36375970783446</v>
       </c>
       <c r="C22">
-        <v>10.44190751399667</v>
+        <v>13.98786031475847</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.18394299562093</v>
+        <v>6.90094266204357</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.613700264793505</v>
+        <v>2.042492889752295</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.52693409898021</v>
+        <v>12.18765458113242</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.971506677388605</v>
+        <v>8.654759292623034</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.79242152348837</v>
+        <v>11.39167887269409</v>
       </c>
       <c r="O22">
-        <v>20.74130497319281</v>
+        <v>15.32777196042442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.54502486749947</v>
+        <v>26.85583064115874</v>
       </c>
       <c r="C23">
-        <v>10.35496991387575</v>
+        <v>13.78499063841362</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.19406347854539</v>
+        <v>6.886896413454524</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.614448717954813</v>
+        <v>2.044729391476523</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.56264581181028</v>
+        <v>12.19807090515261</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.953382376946697</v>
+        <v>8.538703887609216</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.80607646001644</v>
+        <v>11.42523280734316</v>
       </c>
       <c r="O23">
-        <v>20.75264053533171</v>
+        <v>15.19416914762997</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.71280308483872</v>
+        <v>24.84761112305793</v>
       </c>
       <c r="C24">
-        <v>10.0169103631509</v>
+        <v>12.98984489749603</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.23577618574278</v>
+        <v>6.844037414116889</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.617394084734266</v>
+        <v>2.053323453889587</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.70664005567392</v>
+        <v>12.27682941730243</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.887400854744401</v>
+        <v>8.092988897066252</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.86098637197196</v>
+        <v>11.56067057521719</v>
       </c>
       <c r="O24">
-        <v>20.80593018149931</v>
+        <v>14.72048453712556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.77042376950782</v>
+        <v>22.49783608528118</v>
       </c>
       <c r="C25">
-        <v>9.634724144620135</v>
+        <v>12.07597486169184</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.2879884706404</v>
+        <v>6.818636329676209</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.620809356195789</v>
+        <v>2.062888604374945</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.88052818776773</v>
+        <v>12.43656520712016</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.822151421787503</v>
+        <v>7.600826408675059</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.92705829865755</v>
+        <v>11.723510270503</v>
       </c>
       <c r="O25">
-        <v>20.88539405287058</v>
+        <v>14.27673230196528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.60656289438452</v>
+        <v>13.71886857730628</v>
       </c>
       <c r="C2">
-        <v>11.35634966184563</v>
+        <v>8.967250543445472</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.816538670511337</v>
+        <v>27.01344786681895</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>34.65022072530918</v>
       </c>
       <c r="G2">
-        <v>2.070215119963403</v>
+        <v>16.43432313368115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.76038359869696</v>
       </c>
       <c r="I2">
-        <v>12.60964321386567</v>
+        <v>2.489387847908833</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.035005502883161</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.21920888353685</v>
       </c>
       <c r="L2">
-        <v>7.230859892254054</v>
+        <v>5.262968587638168</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.57604158979657</v>
       </c>
       <c r="N2">
-        <v>11.85684964993403</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.00528465187956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.23770336558616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.22273014164783</v>
+        <v>12.88188834105226</v>
       </c>
       <c r="C3">
-        <v>10.84070851511019</v>
+        <v>8.570196867510505</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.824800981359261</v>
+        <v>25.42234551627539</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>33.16561809970175</v>
       </c>
       <c r="G3">
-        <v>2.075371138667593</v>
+        <v>16.63610572010414</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.610587829754277</v>
       </c>
       <c r="I3">
-        <v>12.75736012926656</v>
+        <v>2.611835091275027</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.141437144694413</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.45513236728933</v>
       </c>
       <c r="L3">
-        <v>6.976800067539737</v>
+        <v>5.196542440131076</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.92049739062153</v>
       </c>
       <c r="N3">
-        <v>11.95517871821276</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.85417064722556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.41644622516985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32218290273938</v>
+        <v>12.33747267101979</v>
       </c>
       <c r="C4">
-        <v>10.51087716758769</v>
+        <v>8.320001537334329</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.834423543489902</v>
+        <v>24.39607576718227</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>32.22724360209646</v>
       </c>
       <c r="G4">
-        <v>2.078635287838194</v>
+        <v>16.77347922678157</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.772775271724907</v>
       </c>
       <c r="I4">
-        <v>12.86176648626842</v>
+        <v>2.690480851874824</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.209143348884103</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.60345408584882</v>
       </c>
       <c r="L4">
-        <v>6.819719766309039</v>
+        <v>5.154071115890329</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.49904828188631</v>
       </c>
       <c r="N4">
-        <v>12.01935746575943</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>13.77692313677122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.53163224542596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94233908453924</v>
+        <v>12.10552657073627</v>
       </c>
       <c r="C5">
-        <v>10.37324599076196</v>
+        <v>8.225318621390953</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.839454950881456</v>
+        <v>23.97063432488102</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>31.83376715534538</v>
       </c>
       <c r="G5">
-        <v>2.079990768868898</v>
+        <v>16.82260797886504</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.840418500265984</v>
       </c>
       <c r="I5">
-        <v>12.90757685327091</v>
+        <v>2.726419971809725</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.235825548114239</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.66192813775292</v>
       </c>
       <c r="L5">
-        <v>6.755528028807646</v>
+        <v>5.135970464552912</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.32452422461412</v>
       </c>
       <c r="N5">
-        <v>12.04645040701467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>13.74923979531597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.57606007208936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.8784872907491</v>
+        <v>12.06354146220374</v>
       </c>
       <c r="C6">
-        <v>10.35020121531396</v>
+        <v>8.220292902293286</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.840356469262142</v>
+        <v>23.90539008084378</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>31.76220810299692</v>
       </c>
       <c r="G6">
-        <v>2.08021739103494</v>
+        <v>16.81869012399047</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.851842620118167</v>
       </c>
       <c r="I6">
-        <v>12.91537560707035</v>
+        <v>2.736332441759504</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.238465470654303</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.66822301840288</v>
       </c>
       <c r="L6">
-        <v>6.744861017189365</v>
+        <v>5.132494266612193</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.29755733832122</v>
       </c>
       <c r="N6">
-        <v>12.05100544684658</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>13.74486875031303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.5788327724819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31711237524798</v>
+        <v>12.32633597842311</v>
       </c>
       <c r="C7">
-        <v>10.5090339217269</v>
+        <v>8.347781586048457</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.834486948731758</v>
+        <v>24.4067658487767</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>32.20622605496202</v>
       </c>
       <c r="G7">
-        <v>2.078653465075976</v>
+        <v>16.74056734305899</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.773955833828084</v>
       </c>
       <c r="I7">
-        <v>12.86237131975316</v>
+        <v>2.70124672019857</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.204522749222685</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.59478283674437</v>
       </c>
       <c r="L7">
-        <v>6.818854655465666</v>
+        <v>5.152627823330964</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.50287237830718</v>
       </c>
       <c r="N7">
-        <v>12.0197190677554</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>13.77653457726635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.51942898321579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13993116816501</v>
+        <v>13.42677341649932</v>
       </c>
       <c r="C8">
-        <v>11.18135798213118</v>
+        <v>8.868392581883045</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.818422946308027</v>
+        <v>26.49524721190106</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>34.12448434257803</v>
       </c>
       <c r="G8">
-        <v>2.07197286839411</v>
+        <v>16.45632224662453</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.675479938346077</v>
       </c>
       <c r="I8">
-        <v>12.65761783791094</v>
+        <v>2.544078165016332</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.064658101308215</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.28743490883482</v>
       </c>
       <c r="L8">
-        <v>7.143538946459343</v>
+        <v>5.238878046743946</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.36173061401143</v>
       </c>
       <c r="N8">
-        <v>11.88995322999289</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>13.94989280635444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.28121724401929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.31418033677396</v>
+        <v>15.35445893984659</v>
       </c>
       <c r="C9">
-        <v>12.39120405785099</v>
+        <v>9.786905242858102</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.824524641976878</v>
+        <v>30.16812561612558</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>37.68257496780543</v>
       </c>
       <c r="G9">
-        <v>2.059624409877946</v>
+        <v>16.0762434963096</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.266058394992755</v>
       </c>
       <c r="I9">
-        <v>12.37356473859778</v>
+        <v>2.703027459662773</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.818270242656536</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.72851232836758</v>
       </c>
       <c r="L9">
-        <v>7.767956627664859</v>
+        <v>5.396954025652508</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.88159298211014</v>
       </c>
       <c r="N9">
-        <v>11.66650913599332</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.41743423443371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.88242599478622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.40698163729753</v>
+        <v>16.61960861982601</v>
       </c>
       <c r="C10">
-        <v>13.21013993679941</v>
+        <v>10.42423089548157</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.853970908484265</v>
+        <v>32.17350585604332</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>39.74151797906128</v>
       </c>
       <c r="G10">
-        <v>2.050969084825435</v>
+        <v>15.77255243736844</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.652083382246053</v>
       </c>
       <c r="I10">
-        <v>12.24913900921279</v>
+        <v>2.90239599129033</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.635327663852966</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.31467453330059</v>
       </c>
       <c r="L10">
-        <v>8.214949835311518</v>
+        <v>5.481292434475194</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.89850215084229</v>
       </c>
       <c r="N10">
-        <v>11.52254229230341</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.84366807379463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.581183967221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.30813498834284</v>
+        <v>17.16200029313039</v>
       </c>
       <c r="C11">
-        <v>13.56699624033574</v>
+        <v>10.62533047999997</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.87321589713084</v>
+        <v>29.1790749160614</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>37.275024092466</v>
       </c>
       <c r="G11">
-        <v>2.047112330197514</v>
+        <v>14.79512530461779</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.320681416900442</v>
       </c>
       <c r="I11">
-        <v>12.21374772078721</v>
+        <v>2.970620919508344</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.446805638852924</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.99746414526284</v>
       </c>
       <c r="L11">
-        <v>8.415022988493972</v>
+        <v>5.389232294752257</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.30977768872301</v>
       </c>
       <c r="N11">
-        <v>11.46175357438737</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.05634170979808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.14670567108094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.6421502401588</v>
+        <v>17.37325403370193</v>
       </c>
       <c r="C12">
-        <v>13.69984560897315</v>
+        <v>10.62613009080951</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.881379019689791</v>
+        <v>26.19656266860577</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>34.75979147723491</v>
       </c>
       <c r="G12">
-        <v>2.045662605607914</v>
+        <v>14.0829312611342</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.427678523706832</v>
       </c>
       <c r="I12">
-        <v>12.20364727019995</v>
+        <v>2.983208564051544</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.333965611619537</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.83957863792276</v>
       </c>
       <c r="L12">
-        <v>8.49026766649102</v>
+        <v>5.401135870780642</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.44205042987696</v>
       </c>
       <c r="N12">
-        <v>11.43944062867335</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.13962627999556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.86450448893864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.57053436445061</v>
+        <v>17.34010774989926</v>
       </c>
       <c r="C13">
-        <v>13.67133607679954</v>
+        <v>10.51038792421811</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.879581469172765</v>
+        <v>22.97648765022289</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>31.9779820936711</v>
       </c>
       <c r="G13">
-        <v>2.045974365942408</v>
+        <v>13.48511790164253</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.660856676636464</v>
       </c>
       <c r="I13">
-        <v>12.20567168081436</v>
+        <v>2.958830011583176</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.265326354514098</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.78056211038523</v>
       </c>
       <c r="L13">
-        <v>8.474086133764253</v>
+        <v>5.487885210519314</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.3792370076005</v>
       </c>
       <c r="N13">
-        <v>11.44421419215036</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.12156646603883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.66474238751907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.33575907570912</v>
+        <v>17.20417677499941</v>
       </c>
       <c r="C14">
-        <v>13.57797175161847</v>
+        <v>10.38300124006191</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.87386974229143</v>
+        <v>20.58181574282749</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>29.88428381818125</v>
       </c>
       <c r="G14">
-        <v>2.046992850190305</v>
+        <v>13.12067686039519</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.567682029733558</v>
       </c>
       <c r="I14">
-        <v>12.21284912217919</v>
+        <v>2.926373581871068</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.23693312086607</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.78392180038342</v>
       </c>
       <c r="L14">
-        <v>8.421224057910941</v>
+        <v>5.592415501790817</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.24787647537548</v>
       </c>
       <c r="N14">
-        <v>11.45990353438037</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.06313822046084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.56245089136297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.19101314032794</v>
+        <v>17.11566779418316</v>
       </c>
       <c r="C15">
-        <v>13.52048521911205</v>
+        <v>10.33637213738136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.87048616314392</v>
+        <v>19.94578694590669</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>29.3110242874178</v>
       </c>
       <c r="G15">
-        <v>2.04761807441192</v>
+        <v>13.0481863597406</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.774448902404319</v>
       </c>
       <c r="I15">
-        <v>12.2176830296886</v>
+        <v>2.911990320086042</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.238068181047281</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.80281448486212</v>
       </c>
       <c r="L15">
-        <v>8.388775658781594</v>
+        <v>5.619409437521302</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.17562043924905</v>
       </c>
       <c r="N15">
-        <v>11.4696066497642</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.02770864516205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.55162748988106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.34707253265459</v>
+        <v>16.60100202028269</v>
       </c>
       <c r="C16">
-        <v>13.18650023391754</v>
+        <v>10.10541356461449</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.852833858253213</v>
+        <v>19.53136127607355</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>28.85224614003111</v>
       </c>
       <c r="G16">
-        <v>2.051222683683661</v>
+        <v>13.29368983749811</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.499770496953317</v>
       </c>
       <c r="I16">
-        <v>12.25190006473672</v>
+        <v>2.834860862518319</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.327893814452399</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.98582745167073</v>
       </c>
       <c r="L16">
-        <v>8.201804467855613</v>
+        <v>5.560542319251843</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.77060228584128</v>
       </c>
       <c r="N16">
-        <v>11.52661212515676</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.83015163662608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.71821779652923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.81637116494439</v>
+        <v>16.2726444670667</v>
       </c>
       <c r="C17">
-        <v>12.97757056150236</v>
+        <v>9.996830588747303</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.843527569606497</v>
+        <v>20.54319672629958</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>29.64785782139017</v>
       </c>
       <c r="G17">
-        <v>2.053454053958909</v>
+        <v>13.667513843311</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.755752668978903</v>
       </c>
       <c r="I17">
-        <v>12.27850036512261</v>
+        <v>2.792973875332375</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.411442689292587</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.12356128817409</v>
       </c>
       <c r="L17">
-        <v>8.086229447006371</v>
+        <v>5.451257446422024</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.5268531125942</v>
       </c>
       <c r="N17">
-        <v>11.56280821035805</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>14.71380429502895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.89799244627879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.50633227111597</v>
+        <v>16.08073380771856</v>
       </c>
       <c r="C18">
-        <v>12.85592475330679</v>
+        <v>9.962575416902892</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.838723428623275</v>
+        <v>22.90877560722315</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>31.6334096988115</v>
       </c>
       <c r="G18">
-        <v>2.054745119076875</v>
+        <v>14.22223995170432</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.568319943601798</v>
       </c>
       <c r="I18">
-        <v>12.29578107357313</v>
+        <v>2.773464459339648</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.502951733284116</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.24750803569699</v>
       </c>
       <c r="L18">
-        <v>8.019448672510592</v>
+        <v>5.333701666095075</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.3953113309763</v>
       </c>
       <c r="N18">
-        <v>11.5840678972352</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.64864950802804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.12051581958164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.40053264210351</v>
+        <v>16.00423875809553</v>
       </c>
       <c r="C19">
-        <v>12.81448530865476</v>
+        <v>10.03950333499708</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.837189995978027</v>
+        <v>26.19061507390505</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>34.3945308782264</v>
       </c>
       <c r="G19">
-        <v>2.055183588532494</v>
+        <v>14.84348889278987</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.289060371140515</v>
       </c>
       <c r="I19">
-        <v>12.30196469934</v>
+        <v>2.784069033350115</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.588119454029127</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.34721401054909</v>
       </c>
       <c r="L19">
-        <v>7.996787089967748</v>
+        <v>5.293486520179293</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.37611720860061</v>
       </c>
       <c r="N19">
-        <v>11.59134086856523</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.62689072519703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.34717949002842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.87336074511361</v>
+        <v>16.2779861042327</v>
       </c>
       <c r="C20">
-        <v>12.99996438287746</v>
+        <v>10.33567730065611</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.844461212788542</v>
+        <v>31.67869282687478</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>39.15197371238825</v>
       </c>
       <c r="G20">
-        <v>2.053215736016699</v>
+        <v>15.73654926402334</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.549475710233924</v>
       </c>
       <c r="I20">
-        <v>12.27546189986009</v>
+        <v>2.861750916412502</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.666736473285485</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.39316538155304</v>
       </c>
       <c r="L20">
-        <v>8.098564562801466</v>
+        <v>5.455214706329787</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.65397782708667</v>
       </c>
       <c r="N20">
-        <v>11.55890925889147</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.72600659825012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.61656125411735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.40491386373607</v>
+        <v>17.20555978337966</v>
       </c>
       <c r="C21">
-        <v>13.60545729721038</v>
+        <v>10.81469101226396</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.875523384840812</v>
+        <v>33.83549778520105</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>41.29550952983882</v>
       </c>
       <c r="G21">
-        <v>2.046693412093105</v>
+        <v>15.70166586827022</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.874536517732709</v>
       </c>
       <c r="I21">
-        <v>12.21064929838162</v>
+        <v>3.014863495430099</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.551684158113965</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.10896695732829</v>
       </c>
       <c r="L21">
-        <v>8.436765354640595</v>
+        <v>5.555143792085818</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.40542214884728</v>
       </c>
       <c r="N21">
-        <v>11.45527576781604</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.08022503457384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.45585647627963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.36375970783446</v>
+        <v>17.7926312889635</v>
       </c>
       <c r="C22">
-        <v>13.98786031475847</v>
+        <v>11.0837764305086</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.90094266204357</v>
+        <v>34.95029141099278</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>42.4780892585549</v>
       </c>
       <c r="G22">
-        <v>2.042492889752295</v>
+        <v>15.69579197266706</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.070709102006743</v>
       </c>
       <c r="I22">
-        <v>12.18765458113242</v>
+        <v>3.107670239775852</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.47945466356556</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.93078814943513</v>
       </c>
       <c r="L22">
-        <v>8.654759292623034</v>
+        <v>5.608407979738292</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.86968727630803</v>
       </c>
       <c r="N22">
-        <v>11.39167887269409</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.32777196042442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.35800127343257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.85583064115874</v>
+        <v>17.48869953871022</v>
       </c>
       <c r="C23">
-        <v>13.78499063841362</v>
+        <v>10.91304729728232</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.886896413454524</v>
+        <v>34.34532773338056</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>41.86430925977825</v>
       </c>
       <c r="G23">
-        <v>2.044729391476523</v>
+        <v>15.73696768765067</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.966600852936058</v>
       </c>
       <c r="I23">
-        <v>12.19807090515261</v>
+        <v>3.053955059500443</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.523602965785413</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.03656117889368</v>
       </c>
       <c r="L23">
-        <v>8.538703887609216</v>
+        <v>5.581322419778649</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.61784549815006</v>
       </c>
       <c r="N23">
-        <v>11.42523280734316</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.19416914762997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.4248922059048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.84761112305793</v>
+        <v>16.2729555282196</v>
       </c>
       <c r="C24">
-        <v>12.98984489749603</v>
+        <v>10.29421320604086</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.844037414116889</v>
+        <v>31.98469237226164</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>39.45273505577098</v>
       </c>
       <c r="G24">
-        <v>2.053323453889587</v>
+        <v>15.87220974695463</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.563671663569954</v>
       </c>
       <c r="I24">
-        <v>12.27682941730243</v>
+        <v>2.854343387871293</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.686731542502521</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.42577665672149</v>
       </c>
       <c r="L24">
-        <v>8.092988897066252</v>
+        <v>5.474340863340476</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.6357153624313</v>
       </c>
       <c r="N24">
-        <v>11.56067057521719</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.72048453712556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.668602670061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.49783608528118</v>
+        <v>14.84690612593777</v>
       </c>
       <c r="C25">
-        <v>12.07597486169184</v>
+        <v>9.591542283796093</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.818636329676209</v>
+        <v>29.24236059204172</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>36.72188020322145</v>
       </c>
       <c r="G25">
-        <v>2.062888604374945</v>
+        <v>16.10385274176647</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.110418513931718</v>
       </c>
       <c r="I25">
-        <v>12.43656520712016</v>
+        <v>2.633594826571906</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.873922432852538</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.86012697630565</v>
       </c>
       <c r="L25">
-        <v>7.600826408675059</v>
+        <v>5.353551963660188</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.49720853271368</v>
       </c>
       <c r="N25">
-        <v>11.723510270503</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>14.27673230196528</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.9618643736929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.71886857730628</v>
+        <v>13.74420871095697</v>
       </c>
       <c r="C2">
-        <v>8.967250543445472</v>
+        <v>8.862858161287713</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>27.01344786681895</v>
+        <v>27.09630077453359</v>
       </c>
       <c r="F2">
-        <v>34.65022072530918</v>
+        <v>34.58576622708679</v>
       </c>
       <c r="G2">
-        <v>16.43432313368115</v>
+        <v>15.42209552772117</v>
       </c>
       <c r="H2">
-        <v>1.76038359869696</v>
+        <v>1.772449280087198</v>
       </c>
       <c r="I2">
-        <v>2.489387847908833</v>
+        <v>2.531472191714447</v>
       </c>
       <c r="J2">
-        <v>8.035005502883161</v>
+        <v>8.420389578373875</v>
       </c>
       <c r="K2">
-        <v>12.21920888353685</v>
+        <v>12.00082004924557</v>
       </c>
       <c r="L2">
-        <v>5.262968587638168</v>
+        <v>10.47326504914527</v>
       </c>
       <c r="M2">
-        <v>12.57604158979657</v>
+        <v>7.233472961660461</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.251983181991006</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.59533565575542</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.23770336558616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.1085997544652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.88188834105226</v>
+        <v>12.93021621157097</v>
       </c>
       <c r="C3">
-        <v>8.570196867510505</v>
+        <v>8.38982597207556</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.42234551627539</v>
+        <v>25.48618693116182</v>
       </c>
       <c r="F3">
-        <v>33.16561809970175</v>
+        <v>33.12452966651219</v>
       </c>
       <c r="G3">
-        <v>16.63610572010414</v>
+        <v>15.68277374626814</v>
       </c>
       <c r="H3">
-        <v>1.610587829754277</v>
+        <v>1.594481558511232</v>
       </c>
       <c r="I3">
-        <v>2.611835091275027</v>
+        <v>2.524748323157515</v>
       </c>
       <c r="J3">
-        <v>8.141437144694413</v>
+        <v>8.495730068020729</v>
       </c>
       <c r="K3">
-        <v>12.45513236728933</v>
+        <v>12.22713421204047</v>
       </c>
       <c r="L3">
-        <v>5.196542440131076</v>
+        <v>10.66075284258882</v>
       </c>
       <c r="M3">
-        <v>11.92049739062153</v>
+        <v>7.438694774351238</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.18602380139783</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.93109351420923</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.41644622516985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.29093831479118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33747267101979</v>
+        <v>12.40109012005825</v>
       </c>
       <c r="C4">
-        <v>8.320001537334329</v>
+        <v>8.09076102158398</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.39607576718227</v>
+        <v>24.44803069526191</v>
       </c>
       <c r="F4">
-        <v>32.22724360209646</v>
+        <v>32.20054899300199</v>
       </c>
       <c r="G4">
-        <v>16.77347922678157</v>
+        <v>15.85633933722846</v>
       </c>
       <c r="H4">
-        <v>1.772775271724907</v>
+        <v>1.754310744774528</v>
       </c>
       <c r="I4">
-        <v>2.690480851874824</v>
+        <v>2.59460542692028</v>
       </c>
       <c r="J4">
-        <v>8.209143348884103</v>
+        <v>8.543182411005015</v>
       </c>
       <c r="K4">
-        <v>12.60345408584882</v>
+        <v>12.36893188032184</v>
       </c>
       <c r="L4">
-        <v>5.154071115890329</v>
+        <v>10.78339030762275</v>
       </c>
       <c r="M4">
-        <v>11.49904828188631</v>
+        <v>7.57882391569244</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.143813257203599</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.50415497645274</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.53163224542596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.40728932076183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10552657073627</v>
+        <v>12.17574279161163</v>
       </c>
       <c r="C5">
-        <v>8.225318621390953</v>
+        <v>7.975800141639045</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.97063432488102</v>
+        <v>24.01759326041336</v>
       </c>
       <c r="F5">
-        <v>31.83376715534538</v>
+        <v>31.81303457754054</v>
       </c>
       <c r="G5">
-        <v>16.82260797886504</v>
+        <v>15.92009561836575</v>
       </c>
       <c r="H5">
-        <v>1.840418500265984</v>
+        <v>1.820974972088397</v>
       </c>
       <c r="I5">
-        <v>2.726419971809725</v>
+        <v>2.627495639610369</v>
       </c>
       <c r="J5">
-        <v>8.235825548114239</v>
+        <v>8.561328821566494</v>
       </c>
       <c r="K5">
-        <v>12.66192813775292</v>
+        <v>12.42463534873258</v>
       </c>
       <c r="L5">
-        <v>5.135970464552912</v>
+        <v>10.8317451065693</v>
       </c>
       <c r="M5">
-        <v>11.32452422461412</v>
+        <v>7.63889600797604</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.125819733104252</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.32733010284236</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.57606007208936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.45199939017817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.06354146220374</v>
+        <v>12.13494658673155</v>
       </c>
       <c r="C6">
-        <v>8.220292902293286</v>
+        <v>7.967568707767247</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.90539008084378</v>
+        <v>23.95137163782236</v>
       </c>
       <c r="F6">
-        <v>31.76220810299692</v>
+        <v>31.74259368519794</v>
       </c>
       <c r="G6">
-        <v>16.81869012399047</v>
+        <v>15.91849085820516</v>
       </c>
       <c r="H6">
-        <v>1.851842620118167</v>
+        <v>1.832233003832881</v>
       </c>
       <c r="I6">
-        <v>2.736332441759504</v>
+        <v>2.637621859984116</v>
       </c>
       <c r="J6">
-        <v>8.238465470654303</v>
+        <v>8.562539751790057</v>
       </c>
       <c r="K6">
-        <v>12.66822301840288</v>
+        <v>12.43051345874177</v>
       </c>
       <c r="L6">
-        <v>5.132494266612193</v>
+        <v>10.83564560499582</v>
       </c>
       <c r="M6">
-        <v>11.29755733832122</v>
+        <v>7.64848427360409</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.122370194355738</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.29993407561129</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.5788327724819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.45487577818055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.32633597842311</v>
+        <v>12.39099672256446</v>
       </c>
       <c r="C7">
-        <v>8.347781586048457</v>
+        <v>8.114248296142321</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.4067658487767</v>
+        <v>24.46769650747115</v>
       </c>
       <c r="F7">
-        <v>32.20622605496202</v>
+        <v>32.17078312686894</v>
       </c>
       <c r="G7">
-        <v>16.74056734305899</v>
+        <v>15.87797203988139</v>
       </c>
       <c r="H7">
-        <v>1.773955833828084</v>
+        <v>1.755715611123478</v>
       </c>
       <c r="I7">
-        <v>2.70124672019857</v>
+        <v>2.607667466690574</v>
       </c>
       <c r="J7">
-        <v>8.204522749222685</v>
+        <v>8.516852136960521</v>
       </c>
       <c r="K7">
-        <v>12.59478283674437</v>
+        <v>12.35706492532745</v>
       </c>
       <c r="L7">
-        <v>5.152627823330964</v>
+        <v>10.7688787176955</v>
       </c>
       <c r="M7">
-        <v>11.50287237830718</v>
+        <v>7.576756376188857</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.141737083560635</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.50659512087932</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.51942898321579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.38832916930562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42677341649932</v>
+        <v>13.4624206061259</v>
       </c>
       <c r="C8">
-        <v>8.868392581883045</v>
+        <v>8.724686454572069</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>26.49524721190106</v>
+        <v>26.60024922434204</v>
       </c>
       <c r="F8">
-        <v>34.12448434257803</v>
+        <v>34.0396694793242</v>
       </c>
       <c r="G8">
-        <v>16.45632224662453</v>
+        <v>15.65032915906053</v>
       </c>
       <c r="H8">
-        <v>1.675479938346077</v>
+        <v>1.688075751222536</v>
       </c>
       <c r="I8">
-        <v>2.544078165016332</v>
+        <v>2.498946962623212</v>
       </c>
       <c r="J8">
-        <v>8.064658101308215</v>
+        <v>8.370305697908535</v>
       </c>
       <c r="K8">
-        <v>12.28743490883482</v>
+        <v>12.05570853482491</v>
       </c>
       <c r="L8">
-        <v>5.238878046743946</v>
+        <v>10.51267600299424</v>
       </c>
       <c r="M8">
-        <v>12.36173061401143</v>
+        <v>7.291575479690811</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.225990332764942</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.37413806320566</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.28121724401929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.13092788833603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.35445893984659</v>
+        <v>15.33895574437333</v>
       </c>
       <c r="C9">
-        <v>9.786905242858102</v>
+        <v>9.81645749237703</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>30.16812561612558</v>
+        <v>30.32297570736692</v>
       </c>
       <c r="F9">
-        <v>37.68257496780543</v>
+        <v>37.53543197814329</v>
       </c>
       <c r="G9">
-        <v>16.0762434963096</v>
+        <v>15.1832590948614</v>
       </c>
       <c r="H9">
-        <v>2.266058394992755</v>
+        <v>2.269734073985758</v>
       </c>
       <c r="I9">
-        <v>2.703027459662773</v>
+        <v>2.750605497728077</v>
       </c>
       <c r="J9">
-        <v>7.818270242656536</v>
+        <v>8.175416945552083</v>
       </c>
       <c r="K9">
-        <v>11.72851232836758</v>
+        <v>11.51450190326669</v>
       </c>
       <c r="L9">
-        <v>5.396954025652508</v>
+        <v>10.10187121851739</v>
       </c>
       <c r="M9">
-        <v>13.88159298211014</v>
+        <v>6.858970412843898</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.382301734127399</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.91414690507288</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.88242599478622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.71002596894711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.61960861982601</v>
+        <v>16.57648554472063</v>
       </c>
       <c r="C10">
-        <v>10.42423089548157</v>
+        <v>10.54160204429678</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>32.17350585604332</v>
+        <v>32.40208228187403</v>
       </c>
       <c r="F10">
-        <v>39.74151797906128</v>
+        <v>39.51000728692377</v>
       </c>
       <c r="G10">
-        <v>15.77255243736844</v>
+        <v>15.17238492749227</v>
       </c>
       <c r="H10">
-        <v>2.652083382246053</v>
+        <v>2.648525142080763</v>
       </c>
       <c r="I10">
-        <v>2.90239599129033</v>
+        <v>2.926965904704849</v>
       </c>
       <c r="J10">
-        <v>7.635327663852966</v>
+        <v>7.9169101642372</v>
       </c>
       <c r="K10">
-        <v>11.31467453330059</v>
+        <v>11.09704005640606</v>
       </c>
       <c r="L10">
-        <v>5.481292434475194</v>
+        <v>9.818333866887642</v>
       </c>
       <c r="M10">
-        <v>14.89850215084229</v>
+        <v>6.587309325692754</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.463142742288126</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.93792468792437</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.581183967221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.34978136859759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.16200029313039</v>
+        <v>17.1259898288025</v>
       </c>
       <c r="C11">
-        <v>10.62533047999997</v>
+        <v>10.69478809174635</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29.1790749160614</v>
+        <v>29.4865535483656</v>
       </c>
       <c r="F11">
-        <v>37.275024092466</v>
+        <v>36.95997198263043</v>
       </c>
       <c r="G11">
-        <v>14.79512530461779</v>
+        <v>14.95759880977837</v>
       </c>
       <c r="H11">
-        <v>3.320681416900442</v>
+        <v>3.314908890911852</v>
       </c>
       <c r="I11">
-        <v>2.970620919508344</v>
+        <v>2.98679380384741</v>
       </c>
       <c r="J11">
-        <v>7.446805638852924</v>
+        <v>7.607716178916026</v>
       </c>
       <c r="K11">
-        <v>10.99746414526284</v>
+        <v>10.7901363348816</v>
       </c>
       <c r="L11">
-        <v>5.389232294752257</v>
+        <v>9.635192205995523</v>
       </c>
       <c r="M11">
-        <v>15.30977768872301</v>
+        <v>6.342005566978898</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.379401030910291</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.3336388036904</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.14670567108094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.86248980231167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37325403370193</v>
+        <v>17.34645702538219</v>
       </c>
       <c r="C12">
-        <v>10.62613009080951</v>
+        <v>10.64951335240116</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.19656266860577</v>
+        <v>26.52885463823261</v>
       </c>
       <c r="F12">
-        <v>34.75979147723491</v>
+        <v>34.41883227871326</v>
       </c>
       <c r="G12">
-        <v>14.0829312611342</v>
+        <v>14.58855285886647</v>
       </c>
       <c r="H12">
-        <v>4.427678523706832</v>
+        <v>4.422836655046619</v>
       </c>
       <c r="I12">
-        <v>2.983208564051544</v>
+        <v>2.996199646954706</v>
       </c>
       <c r="J12">
-        <v>7.333965611619537</v>
+        <v>7.503255968196547</v>
       </c>
       <c r="K12">
-        <v>10.83957863792276</v>
+        <v>10.65397193716916</v>
       </c>
       <c r="L12">
-        <v>5.401135870780642</v>
+        <v>9.566076190232224</v>
       </c>
       <c r="M12">
-        <v>15.44205042987696</v>
+        <v>6.213260552873604</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.40373991216202</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.45459075532511</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.86450448893864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.5779513543043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.34010774989926</v>
+        <v>17.323351849462</v>
       </c>
       <c r="C13">
-        <v>10.51038792421811</v>
+        <v>10.49483948263837</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.97648765022289</v>
+        <v>23.27558296440004</v>
       </c>
       <c r="F13">
-        <v>31.9779820936711</v>
+        <v>31.67188597784124</v>
       </c>
       <c r="G13">
-        <v>13.48511790164253</v>
+        <v>13.86569110950438</v>
       </c>
       <c r="H13">
-        <v>5.660856676636464</v>
+        <v>5.657687897648437</v>
       </c>
       <c r="I13">
-        <v>2.958830011583176</v>
+        <v>2.974582321819812</v>
       </c>
       <c r="J13">
-        <v>7.265326354514098</v>
+        <v>7.498038372787718</v>
       </c>
       <c r="K13">
-        <v>10.78056211038523</v>
+        <v>10.625432234068</v>
       </c>
       <c r="L13">
-        <v>5.487885210519314</v>
+        <v>9.554024113361832</v>
       </c>
       <c r="M13">
-        <v>15.3792370076005</v>
+        <v>6.165620435931981</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.501229681251086</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.38484834779799</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.66474238751907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.42432964357985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.20417677499941</v>
+        <v>17.19503516193854</v>
       </c>
       <c r="C14">
-        <v>10.38300124006191</v>
+        <v>10.34264845828191</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.58181574282749</v>
+        <v>20.83211819614206</v>
       </c>
       <c r="F14">
-        <v>29.88428381818125</v>
+        <v>29.62910220238213</v>
       </c>
       <c r="G14">
-        <v>13.12067686039519</v>
+        <v>13.22336218606076</v>
       </c>
       <c r="H14">
-        <v>6.567682029733558</v>
+        <v>6.56564642171009</v>
       </c>
       <c r="I14">
-        <v>2.926373581871068</v>
+        <v>2.947062089313866</v>
       </c>
       <c r="J14">
-        <v>7.23693312086607</v>
+        <v>7.524756610497425</v>
       </c>
       <c r="K14">
-        <v>10.78392180038342</v>
+        <v>10.64985869096603</v>
       </c>
       <c r="L14">
-        <v>5.592415501790817</v>
+        <v>9.565311641133203</v>
       </c>
       <c r="M14">
-        <v>15.24787647537548</v>
+        <v>6.170102693118428</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.609637775745408</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.25042332782531</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.56245089136297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.37084358004165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.11566779418316</v>
+        <v>17.10877224694354</v>
       </c>
       <c r="C15">
-        <v>10.33637213738136</v>
+        <v>10.29076593896708</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.94578694590669</v>
+        <v>20.17349598136883</v>
       </c>
       <c r="F15">
-        <v>29.3110242874178</v>
+        <v>29.07954276981189</v>
       </c>
       <c r="G15">
-        <v>13.0481863597406</v>
+        <v>13.00803135834128</v>
       </c>
       <c r="H15">
-        <v>6.774448902404319</v>
+        <v>6.772794733010233</v>
       </c>
       <c r="I15">
-        <v>2.911990320086042</v>
+        <v>2.935653430934583</v>
       </c>
       <c r="J15">
-        <v>7.238068181047281</v>
+        <v>7.545910312181409</v>
       </c>
       <c r="K15">
-        <v>10.80281448486212</v>
+        <v>10.67412059904139</v>
       </c>
       <c r="L15">
-        <v>5.619409437521302</v>
+        <v>9.575770736279186</v>
       </c>
       <c r="M15">
-        <v>15.17562043924905</v>
+        <v>6.186685908389023</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.636216175370325</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.17817672235686</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.55162748988106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.37892077330753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.60100202028269</v>
+        <v>16.59826191891057</v>
       </c>
       <c r="C16">
-        <v>10.10541356461449</v>
+        <v>10.06258446651378</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.53136127607355</v>
+        <v>19.67132915091603</v>
       </c>
       <c r="F16">
-        <v>28.85224614003111</v>
+        <v>28.71423601949544</v>
       </c>
       <c r="G16">
-        <v>13.29368983749811</v>
+        <v>12.67060457749858</v>
       </c>
       <c r="H16">
-        <v>6.499770496953317</v>
+        <v>6.499517341516688</v>
       </c>
       <c r="I16">
-        <v>2.834860862518319</v>
+        <v>2.871053679132883</v>
       </c>
       <c r="J16">
-        <v>7.327893814452399</v>
+        <v>7.714274695148002</v>
       </c>
       <c r="K16">
-        <v>10.98582745167073</v>
+        <v>10.85816111613689</v>
       </c>
       <c r="L16">
-        <v>5.560542319251843</v>
+        <v>9.660081551299495</v>
       </c>
       <c r="M16">
-        <v>14.77060228584128</v>
+        <v>6.34230561559148</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.568919568733627</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.77959231649617</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.71821779652923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.6035942469538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.2726444670667</v>
+        <v>16.27002577056511</v>
       </c>
       <c r="C17">
-        <v>9.996830588747303</v>
+        <v>9.96398904897895</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.54319672629958</v>
+        <v>20.65178699080323</v>
       </c>
       <c r="F17">
-        <v>29.64785782139017</v>
+        <v>29.54406256079838</v>
       </c>
       <c r="G17">
-        <v>13.667513843311</v>
+        <v>12.8185709446395</v>
       </c>
       <c r="H17">
-        <v>5.755752668978903</v>
+        <v>5.756232392449885</v>
       </c>
       <c r="I17">
-        <v>2.792973875332375</v>
+        <v>2.835827582044719</v>
       </c>
       <c r="J17">
-        <v>7.411442689292587</v>
+        <v>7.838592459732769</v>
       </c>
       <c r="K17">
-        <v>11.12356128817409</v>
+        <v>10.9884945315214</v>
       </c>
       <c r="L17">
-        <v>5.451257446422024</v>
+        <v>9.729191636623929</v>
       </c>
       <c r="M17">
-        <v>14.5268531125942</v>
+        <v>6.453748515830283</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.454727453071256</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.54108868899437</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.89799244627879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.79898711828199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08073380771856</v>
+        <v>16.07302924153453</v>
       </c>
       <c r="C18">
-        <v>9.962575416902892</v>
+        <v>9.955166929755805</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.90877560722315</v>
+        <v>23.01551187032949</v>
       </c>
       <c r="F18">
-        <v>31.6334096988115</v>
+        <v>31.53241891808264</v>
       </c>
       <c r="G18">
-        <v>14.22223995170432</v>
+        <v>13.26912345414879</v>
       </c>
       <c r="H18">
-        <v>4.568319943601798</v>
+        <v>4.569309446003698</v>
       </c>
       <c r="I18">
-        <v>2.773464459339648</v>
+        <v>2.817868341898545</v>
       </c>
       <c r="J18">
-        <v>7.502951733284116</v>
+        <v>7.943690733319851</v>
       </c>
       <c r="K18">
-        <v>11.24750803569699</v>
+        <v>11.09889201762908</v>
       </c>
       <c r="L18">
-        <v>5.333701666095075</v>
+        <v>9.798894137590944</v>
       </c>
       <c r="M18">
-        <v>14.3953113309763</v>
+        <v>6.546468503560374</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.333424567505194</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.41632944383617</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.12051581958164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.01501951963717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.00423875809553</v>
+        <v>15.98730214042491</v>
       </c>
       <c r="C19">
-        <v>10.03950333499708</v>
+        <v>10.07149379511562</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.19061507390505</v>
+        <v>26.3124308680933</v>
       </c>
       <c r="F19">
-        <v>34.3945308782264</v>
+        <v>34.2779501390655</v>
       </c>
       <c r="G19">
-        <v>14.84348889278987</v>
+        <v>13.83764938760647</v>
       </c>
       <c r="H19">
-        <v>3.289060371140515</v>
+        <v>3.29039532948603</v>
       </c>
       <c r="I19">
-        <v>2.784069033350115</v>
+        <v>2.828309194424438</v>
       </c>
       <c r="J19">
-        <v>7.588119454029127</v>
+        <v>8.026339596115012</v>
       </c>
       <c r="K19">
-        <v>11.34721401054909</v>
+        <v>11.18139483344225</v>
       </c>
       <c r="L19">
-        <v>5.293486520179293</v>
+        <v>9.859306045994966</v>
       </c>
       <c r="M19">
-        <v>14.37611720860061</v>
+        <v>6.614345545210822</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.288834096785864</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.40515175053979</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.34717949002842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.22223265144011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.2779861042327</v>
+        <v>16.24012668335901</v>
       </c>
       <c r="C20">
-        <v>10.33567730065611</v>
+        <v>10.4444427923847</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>31.67869282687478</v>
+        <v>31.86092555679487</v>
       </c>
       <c r="F20">
-        <v>39.15197371238825</v>
+        <v>38.9703436039263</v>
       </c>
       <c r="G20">
-        <v>15.73654926402334</v>
+        <v>14.84305240816092</v>
       </c>
       <c r="H20">
-        <v>2.549475710233924</v>
+        <v>2.548463035715353</v>
       </c>
       <c r="I20">
-        <v>2.861750916412502</v>
+        <v>2.896816115261112</v>
       </c>
       <c r="J20">
-        <v>7.666736473285485</v>
+        <v>8.037507472203902</v>
       </c>
       <c r="K20">
-        <v>11.39316538155304</v>
+        <v>11.1910148068748</v>
       </c>
       <c r="L20">
-        <v>5.455214706329787</v>
+        <v>9.879090619307842</v>
       </c>
       <c r="M20">
-        <v>14.65397782708667</v>
+        <v>6.640644079685361</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.440122654647017</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.69470605131784</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.61656125411735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.4286471039776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.20555978337966</v>
+        <v>17.1570681561951</v>
       </c>
       <c r="C21">
-        <v>10.81469101226396</v>
+        <v>10.92823861309052</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>33.83549778520105</v>
+        <v>34.21193399803191</v>
       </c>
       <c r="F21">
-        <v>41.29550952983882</v>
+        <v>40.907145416302</v>
       </c>
       <c r="G21">
-        <v>15.70166586827022</v>
+        <v>16.2166452755747</v>
       </c>
       <c r="H21">
-        <v>2.874536517732709</v>
+        <v>2.864811275125591</v>
       </c>
       <c r="I21">
-        <v>3.014863495430099</v>
+        <v>3.02616433136405</v>
       </c>
       <c r="J21">
-        <v>7.551684158113965</v>
+        <v>7.587689140762309</v>
       </c>
       <c r="K21">
-        <v>11.10896695732829</v>
+        <v>10.84325215902336</v>
       </c>
       <c r="L21">
-        <v>5.555143792085818</v>
+        <v>9.666143663806531</v>
       </c>
       <c r="M21">
-        <v>15.40542214884728</v>
+        <v>6.415328402314406</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.524642719293146</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.43577012226861</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.45585647627963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.08095224010898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.7926312889635</v>
+        <v>17.73922411528602</v>
       </c>
       <c r="C22">
-        <v>11.0837764305086</v>
+        <v>11.19289578244073</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>34.95029141099278</v>
+        <v>35.45710824216079</v>
       </c>
       <c r="F22">
-        <v>42.4780892585549</v>
+        <v>41.95029577370914</v>
       </c>
       <c r="G22">
-        <v>15.69579197266706</v>
+        <v>17.30069422067433</v>
       </c>
       <c r="H22">
-        <v>3.070709102006743</v>
+        <v>3.055533868729333</v>
       </c>
       <c r="I22">
-        <v>3.107670239775852</v>
+        <v>3.102766620658691</v>
       </c>
       <c r="J22">
-        <v>7.47945466356556</v>
+        <v>7.3897396611424</v>
       </c>
       <c r="K22">
-        <v>10.93078814943513</v>
+        <v>10.61860573035835</v>
       </c>
       <c r="L22">
-        <v>5.608407979738292</v>
+        <v>9.542332398381243</v>
       </c>
       <c r="M22">
-        <v>15.86968727630803</v>
+        <v>6.275834467908129</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.567499146470804</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.89225850481963</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.35800127343257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.84667668984263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.48869953871022</v>
+        <v>17.43606115389667</v>
       </c>
       <c r="C23">
-        <v>10.91304729728232</v>
+        <v>11.03358715689488</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>34.34532773338056</v>
+        <v>34.76463236462477</v>
       </c>
       <c r="F23">
-        <v>41.86430925977825</v>
+        <v>41.42935804874258</v>
       </c>
       <c r="G23">
-        <v>15.73696768765067</v>
+        <v>16.58391626961952</v>
       </c>
       <c r="H23">
-        <v>2.966600852936058</v>
+        <v>2.954661787231136</v>
       </c>
       <c r="I23">
-        <v>3.053955059500443</v>
+        <v>3.056944641216407</v>
       </c>
       <c r="J23">
-        <v>7.523602965785413</v>
+        <v>7.506367667987917</v>
       </c>
       <c r="K23">
-        <v>11.03656117889368</v>
+        <v>10.75414368774543</v>
       </c>
       <c r="L23">
-        <v>5.581322419778649</v>
+        <v>9.614731509887269</v>
       </c>
       <c r="M23">
-        <v>15.61784549815006</v>
+        <v>6.36794076762108</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.547395784610049</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.64690554661484</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.4248922059048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.00380646923207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.2729555282196</v>
+        <v>16.2339713308883</v>
       </c>
       <c r="C24">
-        <v>10.29421320604086</v>
+        <v>10.4064225442055</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31.98469237226164</v>
+        <v>32.16776387835207</v>
       </c>
       <c r="F24">
-        <v>39.45273505577098</v>
+        <v>39.27021949704148</v>
       </c>
       <c r="G24">
-        <v>15.87220974695463</v>
+        <v>14.96526019152129</v>
       </c>
       <c r="H24">
-        <v>2.563671663569954</v>
+        <v>2.562666823255948</v>
       </c>
       <c r="I24">
-        <v>2.854343387871293</v>
+        <v>2.887321805612758</v>
       </c>
       <c r="J24">
-        <v>7.686731542502521</v>
+        <v>8.058051136610141</v>
       </c>
       <c r="K24">
-        <v>11.42577665672149</v>
+        <v>11.21934562862409</v>
       </c>
       <c r="L24">
-        <v>5.474340863340476</v>
+        <v>9.898478644285756</v>
       </c>
       <c r="M24">
-        <v>14.6357153624313</v>
+        <v>6.665323637132225</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.458463926981976</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.67747077973662</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.668602670061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.47793714109342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.84690612593777</v>
+        <v>14.84369060396464</v>
       </c>
       <c r="C25">
-        <v>9.591542283796093</v>
+        <v>9.582647235812292</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>29.24236059204172</v>
+        <v>29.37210808572558</v>
       </c>
       <c r="F25">
-        <v>36.72188020322145</v>
+        <v>36.60344581684102</v>
       </c>
       <c r="G25">
-        <v>16.10385274176647</v>
+        <v>15.15107525640444</v>
       </c>
       <c r="H25">
-        <v>2.110418513931718</v>
+        <v>2.116763938666853</v>
       </c>
       <c r="I25">
-        <v>2.633594826571906</v>
+        <v>2.69190662894094</v>
       </c>
       <c r="J25">
-        <v>7.873922432852538</v>
+        <v>8.248050815554206</v>
       </c>
       <c r="K25">
-        <v>11.86012697630565</v>
+        <v>11.64791972425109</v>
       </c>
       <c r="L25">
-        <v>5.353551963660188</v>
+        <v>10.19735642473201</v>
       </c>
       <c r="M25">
-        <v>13.49720853271368</v>
+        <v>6.955206784962797</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.340340976306395</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.52582235083767</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.9618643736929</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.80752551914284</v>
       </c>
     </row>
   </sheetData>
